--- a/유닛 및 건물/건물알고리즘.xlsx
+++ b/유닛 및 건물/건물알고리즘.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Sheperd_Holidays\유닛 및 건물\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0188BEA2-288E-47DB-883D-2009512E9631}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A701607-0ED8-4C4F-8EDF-CCE1C7F5FC95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{3420EE1F-B79F-4D70-BE33-A8D37B33DBA4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="3" xr2:uid="{3420EE1F-B79F-4D70-BE33-A8D37B33DBA4}"/>
   </bookViews>
   <sheets>
     <sheet name="건물 목록" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,6 @@
     <sheet name="훈련소 강화" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="57">
   <si>
     <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -239,6 +238,36 @@
 출력됩니다. 건물의 중앙에는 작업 UI가 출력됩니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>설명</t>
+  </si>
+  <si>
+    <t>생산시간</t>
+  </si>
+  <si>
+    <t>텍스트</t>
+  </si>
+  <si>
+    <t>유닛 생산 큐</t>
+  </si>
+  <si>
+    <t>이미지</t>
+  </si>
+  <si>
+    <t>UI이름</t>
+  </si>
+  <si>
+    <t>UI종류</t>
+  </si>
+  <si>
+    <t>현재 훈련 중인 유닛의 생산시간을 출력합니다.</t>
+  </si>
+  <si>
+    <t>생산 큐에 삽입된 유닛 수에 따라 사각형을 출력합니다.</t>
+  </si>
 </sst>
 </file>
 
@@ -303,7 +332,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -354,13 +383,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -459,6 +525,21 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7727,7 +7808,7 @@
         <xdr:cNvPr id="77" name="직사각형 76">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14EC87BD-CE31-4BE3-8DE4-62C2EEDB737A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11545,7 +11626,7 @@
         <xdr:cNvPr id="69" name="직사각형 68">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70F05521-8D80-4D69-8E91-24907913F03D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000045000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11615,7 +11696,7 @@
         <xdr:cNvPr id="72" name="직선 연결선 71">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{460FFE36-C372-4954-8A3A-09D9816F49A6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000048000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11670,7 +11751,7 @@
         <xdr:cNvPr id="73" name="직사각형 72">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C432C89-12B0-41E6-B1A9-AAD6E610DA6C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000049000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11758,7 +11839,7 @@
         <xdr:cNvPr id="74" name="직선 연결선 73">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DED39EFA-9E1E-450E-93FD-B0DC14CCD491}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11813,7 +11894,7 @@
         <xdr:cNvPr id="75" name="직사각형 74">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41AFB86D-5C07-4CB0-8D93-D5C7D26CEF7C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11888,7 +11969,7 @@
         <xdr:cNvPr id="76" name="부분 원형 75">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89FEEC53-A90D-4335-BC58-3ED6BD1D1C93}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20687,7 +20768,7 @@
         <xdr:cNvPr id="5" name="그룹 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DA93907-8472-41A2-9A2B-35556B1A83E7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20706,7 +20787,7 @@
           <xdr:cNvPr id="40" name="직사각형 39">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{549F0848-0041-445A-8E19-D01ABD908F3D}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000028000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -20853,7 +20934,7 @@
           <xdr:cNvPr id="36" name="그림 35" descr="무기, 검, 나이프, 비행이(가) 표시된 사진&#10;&#10;자동 생성된 설명">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23E266F7-8681-43EA-93E5-7E15CD3355CA}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000024000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -20903,7 +20984,7 @@
         <xdr:cNvPr id="41" name="그룹 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6EC462B-768F-402D-88B8-357BB9112095}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000029000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20922,7 +21003,7 @@
           <xdr:cNvPr id="44" name="직사각형 43">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD6F4042-4B32-4A26-85CC-F96BE8371FFE}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002C000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -21069,7 +21150,7 @@
           <xdr:cNvPr id="45" name="그림 44" descr="무기, 검, 나이프, 비행이(가) 표시된 사진&#10;&#10;자동 생성된 설명">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{092FA29D-5EB9-456A-8AD9-E6B997D91698}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002D000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -21119,7 +21200,7 @@
         <xdr:cNvPr id="50" name="그룹 49">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{950C0810-4347-4FB6-89DD-44090C74843B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000032000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21138,7 +21219,7 @@
           <xdr:cNvPr id="51" name="직사각형 50">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66E4698E-559F-40A2-AD90-7A3DB292B3BE}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000033000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -21285,7 +21366,7 @@
           <xdr:cNvPr id="52" name="그림 51" descr="무기, 검, 나이프, 비행이(가) 표시된 사진&#10;&#10;자동 생성된 설명">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF46DA70-9217-4CC4-88FF-133D3F3F61A8}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000034000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -21335,7 +21416,7 @@
         <xdr:cNvPr id="53" name="그룹 52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EA0EF00-8515-4408-81C3-76AB75D722AC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000035000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21354,7 +21435,7 @@
           <xdr:cNvPr id="54" name="직사각형 53">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECA9B280-AEE4-48C9-84CA-145CC0C3EA83}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000036000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -21501,7 +21582,7 @@
           <xdr:cNvPr id="55" name="그림 54" descr="무기, 검, 나이프, 비행이(가) 표시된 사진&#10;&#10;자동 생성된 설명">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FCDA1A2-C2FF-4098-A0F9-6BFFFFD95F74}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000037000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -21551,7 +21632,7 @@
         <xdr:cNvPr id="56" name="그룹 55">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9D1BCF5-E7EE-4AB6-AA7A-633B0D9ABEB0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000038000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21570,7 +21651,7 @@
           <xdr:cNvPr id="57" name="직사각형 56">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7586C3CE-AB97-487C-9874-640E3D8E87B1}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000039000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -21717,7 +21798,7 @@
           <xdr:cNvPr id="58" name="그림 57" descr="무기, 검, 나이프, 비행이(가) 표시된 사진&#10;&#10;자동 생성된 설명">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AD1A500-7139-41BB-95A7-0677C7744C38}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00003A000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -21767,7 +21848,7 @@
         <xdr:cNvPr id="59" name="그룹 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4599EBF0-56E5-41F4-B03D-5E296B2C2589}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00003B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21786,7 +21867,7 @@
           <xdr:cNvPr id="60" name="직사각형 59">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71844FD5-4883-4923-9CA5-A88AB66DCD2D}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00003C000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -21933,7 +22014,7 @@
           <xdr:cNvPr id="61" name="그림 60" descr="무기, 검, 나이프, 비행이(가) 표시된 사진&#10;&#10;자동 생성된 설명">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{130F0DFF-0E87-4E04-9AF5-5BB411668320}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00003D000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -24902,7 +24983,7 @@
         <xdr:cNvPr id="2" name="그룹 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D96EAB6-C4E0-4153-BD3D-98ACA2D8C393}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24921,7 +25002,7 @@
           <xdr:cNvPr id="36" name="그룹 35">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CC919FD-96EE-45D4-BC77-4650210B9AF7}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000024000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -24940,7 +25021,7 @@
             <xdr:cNvPr id="43" name="직사각형 42">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C3146BB-3530-43E2-B899-863F02BA9A68}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00002B000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -25089,7 +25170,7 @@
             <xdr:cNvPr id="44" name="직사각형 43">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08CFE48A-8061-4EC3-8F10-0406F11AD53F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00002C000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -25236,7 +25317,7 @@
             <xdr:cNvPr id="45" name="직사각형 44">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC52C098-8C2E-4C69-8B60-30C517317DA9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00002D000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -25387,7 +25468,7 @@
           <xdr:cNvPr id="37" name="그림 36">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB8FB2C0-1500-45FE-AB28-158D34010B65}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000025000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -25421,7 +25502,7 @@
           <xdr:cNvPr id="38" name="직사각형 37">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F7E0355-4939-4FE4-B6F5-3A75C5186DA0}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000026000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -25566,7 +25647,7 @@
           <xdr:cNvPr id="39" name="직사각형 38">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4EC092E-95DE-488D-892C-926EC532B2C0}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000027000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -25713,7 +25794,7 @@
           <xdr:cNvPr id="40" name="직사각형 39">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7FFE707-1DC4-4EBD-848D-81243A628EE4}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000028000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -25860,7 +25941,7 @@
           <xdr:cNvPr id="41" name="직사각형 40">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2F4B60C-4B25-46BE-A039-77FE23717E80}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000029000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -26005,7 +26086,7 @@
           <xdr:cNvPr id="42" name="직사각형 41">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2773730E-CF20-4452-A769-3A299D23070E}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00002A000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -26166,7 +26247,7 @@
         <xdr:cNvPr id="3" name="그룹 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B9FB36B-F05E-4484-BCDE-AEF54A8723A0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26185,7 +26266,7 @@
           <xdr:cNvPr id="27" name="그룹 26">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA757518-A508-410A-80F5-65AE30083E35}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00001B000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -26204,7 +26285,7 @@
             <xdr:cNvPr id="33" name="직사각형 32">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{350BDCBB-06AB-433F-918E-7BAABC7A9243}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000021000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -26353,7 +26434,7 @@
             <xdr:cNvPr id="34" name="직사각형 33">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04657E79-D217-4048-96D9-CC9CD20C399E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000022000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -26500,7 +26581,7 @@
             <xdr:cNvPr id="35" name="직사각형 34">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EF19757-FDA4-4BF4-960D-9BE1D2B94C62}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000023000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -26651,7 +26732,7 @@
           <xdr:cNvPr id="28" name="직사각형 27">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2DCA417-55A5-4D8B-AC35-E55F24F14C20}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00001C000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -26796,7 +26877,7 @@
           <xdr:cNvPr id="29" name="직사각형 28">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{491CC6F4-8E03-4093-8F38-A321284F0C91}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00001D000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -26941,7 +27022,7 @@
           <xdr:cNvPr id="30" name="직사각형 29">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFEDC4CC-9DF5-4F15-99D5-05B9528CFFA9}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00001E000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -27086,7 +27167,7 @@
           <xdr:cNvPr id="31" name="직사각형 30">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DA793E7-BAD2-4710-A150-BA77AD718FB7}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00001F000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -27231,7 +27312,7 @@
           <xdr:cNvPr id="32" name="직사각형 31">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB2C9548-7F45-47F6-A962-793CCA62FBE9}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000020000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -27392,7 +27473,7 @@
         <xdr:cNvPr id="4" name="그룹 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000CD000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27411,7 +27492,7 @@
           <xdr:cNvPr id="18" name="순서도: 가산 접합 17">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000CE000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000012000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -27558,7 +27639,7 @@
           <xdr:cNvPr id="19" name="부분 원형 18">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000CF000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000013000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -27713,7 +27794,7 @@
           <xdr:cNvPr id="20" name="화살표: 위쪽 19">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000D0000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000014000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -27852,7 +27933,7 @@
           <xdr:cNvPr id="21" name="그룹 20">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000D1000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000015000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -27871,7 +27952,7 @@
             <xdr:cNvPr id="25" name="그림 24">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000D5000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000019000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -27905,7 +27986,7 @@
             <xdr:cNvPr id="26" name="직선 연결선 25">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000D6000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00001A000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -27948,7 +28029,7 @@
           <xdr:cNvPr id="22" name="그래픽 3" descr="렌치">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000D2000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000016000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -27986,7 +28067,7 @@
           <xdr:cNvPr id="23" name="곱하기 기호 22">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000D3000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000017000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -28133,7 +28214,7 @@
           <xdr:cNvPr id="24" name="그래픽 76" descr="커서">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000D4000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000018000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -28187,7 +28268,7 @@
         <xdr:cNvPr id="5" name="TextBox 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D29B00C9-6818-4115-96B6-EC21A8677A0D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28340,7 +28421,7 @@
         <xdr:cNvPr id="6" name="그림 5" descr="옅은, 램프이(가) 표시된 사진&#10;&#10;자동 생성된 설명">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1FB2F2F-3EA7-443A-9C31-A40DFE326EB8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28390,7 +28471,7 @@
         <xdr:cNvPr id="7" name="그림 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7722416-0EDA-4634-924B-B7BD9E362A0E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28439,7 +28520,7 @@
         <xdr:cNvPr id="8" name="그림 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF82C2EF-8B66-4221-B80F-0E91D0CB8B2B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28495,7 +28576,7 @@
         <xdr:cNvPr id="9" name="화살표: 오른쪽 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91065440-B98B-4A51-8BBD-9088D8002112}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28649,7 +28730,7 @@
         <xdr:cNvPr id="10" name="화살표: 오른쪽 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{248F9464-81DD-4FAA-87C3-5B282157B4B0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28803,7 +28884,7 @@
         <xdr:cNvPr id="11" name="화살표: 오른쪽 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31131205-A6A7-4A85-9A5B-57E905C6D289}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28957,7 +29038,7 @@
         <xdr:cNvPr id="12" name="직사각형 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D608F35-B0CF-46A7-AD5B-4D3F74F90D81}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29117,7 +29198,7 @@
         <xdr:cNvPr id="13" name="내용 개체 틀 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DD8211D-EBAE-4B08-B4C2-87EB2924CE28}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29297,7 +29378,7 @@
         <xdr:cNvPr id="14" name="내용 개체 틀 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF5FC5B-B449-4E12-9B67-BFD9F35D4F70}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29456,7 +29537,7 @@
         <xdr:cNvPr id="15" name="내용 개체 틀 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85804719-EA8A-4159-BC1D-2707D75E9583}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29607,7 +29688,7 @@
         <xdr:cNvPr id="16" name="직사각형 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1A912B5-4CD7-4B50-BF00-5901912074C8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29767,7 +29848,7 @@
         <xdr:cNvPr id="17" name="TextBox 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E76FB07-14B1-4F6C-80E7-5B5C45E14197}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29920,7 +30001,7 @@
         <xdr:cNvPr id="2" name="직사각형 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30094,7 +30175,7 @@
         <xdr:cNvPr id="3" name="직사각형 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30271,7 +30352,7 @@
         <xdr:cNvPr id="4" name="직선 화살표 연결선 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30331,7 +30412,7 @@
         <xdr:cNvPr id="5" name="직사각형 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30505,7 +30586,7 @@
         <xdr:cNvPr id="6" name="직선 화살표 연결선 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30565,7 +30646,7 @@
         <xdr:cNvPr id="7" name="직사각형 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30739,7 +30820,7 @@
         <xdr:cNvPr id="8" name="직사각형 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30913,7 +30994,7 @@
         <xdr:cNvPr id="9" name="직사각형 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31087,7 +31168,7 @@
         <xdr:cNvPr id="10" name="그룹 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31106,7 +31187,7 @@
           <xdr:cNvPr id="28" name="직사각형 27">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00001C000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00001C000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -31261,7 +31342,7 @@
           <xdr:cNvPr id="29" name="직사각형 28">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00001D000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00001D000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -31431,7 +31512,7 @@
           <xdr:cNvPr id="30" name="직사각형 29">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00001E000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00001E000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -31585,7 +31666,7 @@
           <xdr:cNvPr id="31" name="직사각형 30">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00001F000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00001F000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -31739,7 +31820,7 @@
           <xdr:cNvPr id="32" name="직사각형 31">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000020000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000020000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -31900,7 +31981,7 @@
         <xdr:cNvPr id="11" name="그룹 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31919,7 +32000,7 @@
           <xdr:cNvPr id="23" name="직사각형 22">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000017000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000017000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -32064,7 +32145,7 @@
           <xdr:cNvPr id="24" name="직사각형 23">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000018000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000018000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -32226,7 +32307,7 @@
           <xdr:cNvPr id="25" name="직사각형 24">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000019000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000019000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -32388,7 +32469,7 @@
           <xdr:cNvPr id="26" name="직사각형 25">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00001A000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00001A000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -32550,7 +32631,7 @@
           <xdr:cNvPr id="27" name="직사각형 26">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00001B000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00001B000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -32721,7 +32802,7 @@
         <xdr:cNvPr id="12" name="직사각형 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32895,7 +32976,7 @@
         <xdr:cNvPr id="13" name="직선 화살표 연결선 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32955,7 +33036,7 @@
         <xdr:cNvPr id="14" name="그룹 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32974,7 +33055,7 @@
           <xdr:cNvPr id="17" name="그룹 16">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000011000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000011000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -32993,7 +33074,7 @@
             <xdr:cNvPr id="19" name="직사각형 18">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000013000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000013000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -33155,7 +33236,7 @@
             <xdr:cNvPr id="20" name="직사각형 19">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000014000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000014000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -33317,7 +33398,7 @@
             <xdr:cNvPr id="21" name="직사각형 20">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000015000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000015000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -33479,7 +33560,7 @@
             <xdr:cNvPr id="22" name="직사각형 21">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000016000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000016000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -33625,7 +33706,7 @@
           <xdr:cNvPr id="18" name="직사각형 17">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000012000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000012000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -33796,7 +33877,7 @@
         <xdr:cNvPr id="15" name="직사각형 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33956,7 +34037,7 @@
         <xdr:cNvPr id="16" name="직사각형 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -34126,7 +34207,7 @@
         <xdr:cNvPr id="33" name="그룹 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000021000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -34145,7 +34226,7 @@
           <xdr:cNvPr id="34" name="그룹 33">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000022000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000022000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -34164,7 +34245,7 @@
             <xdr:cNvPr id="41" name="직사각형 40">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000029000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000029000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -34313,7 +34394,7 @@
             <xdr:cNvPr id="42" name="직사각형 41">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00002A000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00002A000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -34460,7 +34541,7 @@
             <xdr:cNvPr id="43" name="직사각형 42">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00002B000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00002B000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -34611,7 +34692,7 @@
           <xdr:cNvPr id="35" name="그림 34">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000023000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000023000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -34645,7 +34726,7 @@
           <xdr:cNvPr id="36" name="직사각형 35">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000024000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000024000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -34790,7 +34871,7 @@
           <xdr:cNvPr id="37" name="직사각형 36">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000025000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000025000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -34937,7 +35018,7 @@
           <xdr:cNvPr id="38" name="직사각형 37">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000026000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000026000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -35084,7 +35165,7 @@
           <xdr:cNvPr id="39" name="직사각형 38">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000027000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000027000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -35229,7 +35310,7 @@
           <xdr:cNvPr id="40" name="직사각형 39">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000028000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000028000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -35390,7 +35471,7 @@
         <xdr:cNvPr id="44" name="그룹 43">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00002C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00002C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -35409,7 +35490,7 @@
           <xdr:cNvPr id="46" name="순서도: 가산 접합 45">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00002E000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00002E000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -35556,7 +35637,7 @@
           <xdr:cNvPr id="47" name="부분 원형 46">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00002F000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00002F000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -35711,7 +35792,7 @@
           <xdr:cNvPr id="48" name="화살표: 위쪽 47">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000030000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000030000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -35850,7 +35931,7 @@
           <xdr:cNvPr id="49" name="그룹 48">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000031000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000031000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -35869,7 +35950,7 @@
             <xdr:cNvPr id="53" name="그림 52">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000035000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000035000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -35903,7 +35984,7 @@
             <xdr:cNvPr id="54" name="직선 연결선 53">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000036000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000036000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -35946,7 +36027,7 @@
           <xdr:cNvPr id="50" name="그래픽 3" descr="렌치">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000032000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000032000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -35984,7 +36065,7 @@
           <xdr:cNvPr id="51" name="곱하기 기호 50">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000033000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000033000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -36131,7 +36212,7 @@
           <xdr:cNvPr id="52" name="그래픽 76" descr="커서">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000034000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000034000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -36185,7 +36266,7 @@
         <xdr:cNvPr id="45" name="TextBox 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00002D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00002D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -36338,7 +36419,7 @@
         <xdr:cNvPr id="55" name="직사각형 54">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000037000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000037000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -36498,7 +36579,7 @@
         <xdr:cNvPr id="56" name="화살표: 오른쪽 55">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000038000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000038000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -36652,7 +36733,7 @@
         <xdr:cNvPr id="64" name="그룹 63">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000040000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000040000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -36671,7 +36752,7 @@
           <xdr:cNvPr id="65" name="그룹 64">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000041000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000041000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -36690,7 +36771,7 @@
             <xdr:cNvPr id="72" name="직사각형 71">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000048000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000048000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -36839,7 +36920,7 @@
             <xdr:cNvPr id="73" name="직사각형 72">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000049000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000049000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -36986,7 +37067,7 @@
             <xdr:cNvPr id="74" name="직사각형 73">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00004A000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00004A000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -37137,7 +37218,7 @@
           <xdr:cNvPr id="66" name="그림 65">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000042000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000042000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -37171,7 +37252,7 @@
           <xdr:cNvPr id="67" name="직사각형 66">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000043000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000043000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -37316,7 +37397,7 @@
           <xdr:cNvPr id="68" name="직사각형 67">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000044000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000044000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -37463,7 +37544,7 @@
           <xdr:cNvPr id="69" name="직사각형 68">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000045000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000045000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -37610,7 +37691,7 @@
           <xdr:cNvPr id="70" name="직사각형 69">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000046000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000046000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -37755,7 +37836,7 @@
           <xdr:cNvPr id="71" name="직사각형 70">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000047000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000047000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -37916,7 +37997,7 @@
         <xdr:cNvPr id="75" name="화살표: 오른쪽 74">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00004B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00004B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -38070,7 +38151,7 @@
         <xdr:cNvPr id="76" name="그룹 75">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00004C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00004C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -38089,7 +38170,7 @@
           <xdr:cNvPr id="77" name="그룹 76">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00004D000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00004D000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -38108,7 +38189,7 @@
             <xdr:cNvPr id="85" name="그룹 84">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000055000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000055000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -38127,7 +38208,7 @@
               <xdr:cNvPr id="91" name="직사각형 90">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00005B000000}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00005B000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -38276,7 +38357,7 @@
               <xdr:cNvPr id="92" name="직사각형 91">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00005C000000}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00005C000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -38423,7 +38504,7 @@
               <xdr:cNvPr id="93" name="직사각형 92">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00005D000000}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00005D000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -38574,7 +38655,7 @@
             <xdr:cNvPr id="86" name="직사각형 85">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000056000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000056000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -38719,7 +38800,7 @@
             <xdr:cNvPr id="87" name="직사각형 86">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000057000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000057000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -38866,7 +38947,7 @@
             <xdr:cNvPr id="88" name="직사각형 87">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000058000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000058000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -39013,7 +39094,7 @@
             <xdr:cNvPr id="89" name="직사각형 88">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000059000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000059000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -39158,7 +39239,7 @@
             <xdr:cNvPr id="90" name="직사각형 89">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00005A000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00005A000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -39304,7 +39385,7 @@
           <xdr:cNvPr id="78" name="그룹 77">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00004E000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00004E000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -39323,7 +39404,7 @@
             <xdr:cNvPr id="79" name="그림 78">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00004F000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00004F000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -39357,7 +39438,7 @@
             <xdr:cNvPr id="80" name="직사각형 79">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000050000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000050000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -39507,7 +39588,7 @@
             <xdr:cNvPr id="81" name="직사각형 80">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000051000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000051000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -39657,7 +39738,7 @@
             <xdr:cNvPr id="82" name="직사각형 81">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000052000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000052000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -39807,7 +39888,7 @@
             <xdr:cNvPr id="83" name="직사각형 82">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000053000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000053000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -39957,7 +40038,7 @@
             <xdr:cNvPr id="84" name="직사각형 83">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000054000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000054000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -40129,7 +40210,7 @@
         <xdr:cNvPr id="10" name="그룹 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -40148,7 +40229,7 @@
           <xdr:cNvPr id="12" name="직선 화살표 연결선 11">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000C000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00000C000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -40193,7 +40274,7 @@
           <xdr:cNvPr id="13" name="순서도: 판단 12">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000D000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00000D000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -40368,7 +40449,7 @@
           <xdr:cNvPr id="14" name="직선 화살표 연결선 13">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000E000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00000E000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -40413,7 +40494,7 @@
           <xdr:cNvPr id="15" name="직사각형 14">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000F000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00000F000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -40580,7 +40661,7 @@
           <xdr:cNvPr id="16" name="TextBox 120">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000010000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000010000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -40718,7 +40799,7 @@
           <xdr:cNvPr id="18" name="TextBox 143">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000012000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000012000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -40856,7 +40937,7 @@
           <xdr:cNvPr id="19" name="순서도: 판단 18">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000013000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000013000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -41031,7 +41112,7 @@
           <xdr:cNvPr id="20" name="직사각형 19">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000014000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000014000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -41198,7 +41279,7 @@
           <xdr:cNvPr id="22" name="직선 화살표 연결선 21">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000016000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000016000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -41243,7 +41324,7 @@
           <xdr:cNvPr id="23" name="연결선: 꺾임 22">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000017000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000017000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -41291,7 +41372,7 @@
           <xdr:cNvPr id="24" name="직사각형 23">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000018000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000018000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -41461,7 +41542,7 @@
           <xdr:cNvPr id="25" name="직선 화살표 연결선 24">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000019000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000019000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -41506,7 +41587,7 @@
           <xdr:cNvPr id="26" name="순서도: 판단 25">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00001A000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00001A000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -41681,7 +41762,7 @@
           <xdr:cNvPr id="27" name="TextBox 120">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00001B000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00001B000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -41819,7 +41900,7 @@
           <xdr:cNvPr id="28" name="연결선: 꺾임 27">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00001C000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00001C000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -41864,7 +41945,7 @@
           <xdr:cNvPr id="29" name="TextBox 143">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00001D000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00001D000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -42002,7 +42083,7 @@
           <xdr:cNvPr id="30" name="직사각형 29">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00001E000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00001E000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -42172,7 +42253,7 @@
           <xdr:cNvPr id="31" name="직선 화살표 연결선 30">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00001F000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00001F000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -42217,7 +42298,7 @@
           <xdr:cNvPr id="32" name="TextBox 120">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000020000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000020000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -42923,7 +43004,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11615D36-2F01-44E7-B2B4-D86C908D1C4C}">
   <dimension ref="A1:K57"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -43278,17 +43359,80 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA7C9376-7F84-4077-964E-5E391732AB98}">
-  <dimension ref="A1"/>
+  <dimension ref="E23:M25"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="2" width="8.796875" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="23" spans="5:13" x14ac:dyDescent="0.4">
+      <c r="E23" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="G23" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="H23" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="34"/>
+      <c r="L23" s="34"/>
+      <c r="M23" s="35"/>
+    </row>
+    <row r="24" spans="5:13" x14ac:dyDescent="0.4">
+      <c r="E24" s="6">
+        <v>1</v>
+      </c>
+      <c r="F24" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="G24" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="H24" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="I24" s="37"/>
+      <c r="J24" s="37"/>
+      <c r="K24" s="37"/>
+      <c r="L24" s="37"/>
+      <c r="M24" s="37"/>
+    </row>
+    <row r="25" spans="5:13" x14ac:dyDescent="0.4">
+      <c r="E25" s="6">
+        <v>2</v>
+      </c>
+      <c r="F25" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="G25" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="H25" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="I25" s="37"/>
+      <c r="J25" s="37"/>
+      <c r="K25" s="37"/>
+      <c r="L25" s="37"/>
+      <c r="M25" s="37"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="H23:M23"/>
+    <mergeCell ref="H24:M24"/>
+    <mergeCell ref="H25:M25"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -43315,7 +43459,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6A928A1-8D8E-4284-AC0C-3A893A5DE15C}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
@@ -43331,7 +43475,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>

--- a/유닛 및 건물/건물알고리즘.xlsx
+++ b/유닛 및 건물/건물알고리즘.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Sheperd_Holidays\유닛 및 건물\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A701607-0ED8-4C4F-8EDF-CCE1C7F5FC95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{395B3FFB-38BC-45F5-AF35-E3C9EAB7E412}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="3" xr2:uid="{3420EE1F-B79F-4D70-BE33-A8D37B33DBA4}"/>
+    <workbookView xWindow="0" yWindow="516" windowWidth="20064" windowHeight="11184" firstSheet="1" activeTab="3" xr2:uid="{3420EE1F-B79F-4D70-BE33-A8D37B33DBA4}"/>
   </bookViews>
   <sheets>
     <sheet name="건물 목록" sheetId="1" r:id="rId1"/>
@@ -496,6 +496,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -517,15 +520,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -535,11 +529,17 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -43016,72 +43016,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A13" s="25"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
+      <c r="A13" s="26"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A14" s="25"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
+      <c r="A14" s="26"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A16" s="14"/>
@@ -43126,24 +43126,24 @@
       <c r="D28" s="19"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A29" s="26" t="s">
+      <c r="A29" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="B29" s="27"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A30" s="27"/>
-      <c r="B30" s="27"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="27"/>
+      <c r="A30" s="28"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A31" s="27"/>
-      <c r="B31" s="27"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
+      <c r="A31" s="28"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A34" s="8" t="s">
@@ -43280,22 +43280,22 @@
       <c r="D53" s="16"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A55" s="23"/>
-      <c r="B55" s="23"/>
-      <c r="C55" s="23"/>
-      <c r="D55" s="23"/>
+      <c r="A55" s="24"/>
+      <c r="B55" s="24"/>
+      <c r="C55" s="24"/>
+      <c r="D55" s="24"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A56" s="23"/>
-      <c r="B56" s="23"/>
-      <c r="C56" s="23"/>
-      <c r="D56" s="23"/>
+      <c r="A56" s="24"/>
+      <c r="B56" s="24"/>
+      <c r="C56" s="24"/>
+      <c r="D56" s="24"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A57" s="23"/>
-      <c r="B57" s="23"/>
-      <c r="C57" s="23"/>
-      <c r="D57" s="23"/>
+      <c r="A57" s="24"/>
+      <c r="B57" s="24"/>
+      <c r="C57" s="24"/>
+      <c r="D57" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -43327,23 +43327,23 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -43361,8 +43361,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA7C9376-7F84-4077-964E-5E391732AB98}">
   <dimension ref="E23:M25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S20" sqref="S20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -43380,52 +43380,52 @@
       <c r="G23" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="H23" s="33" t="s">
+      <c r="H23" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="I23" s="34"/>
-      <c r="J23" s="34"/>
-      <c r="K23" s="34"/>
-      <c r="L23" s="34"/>
-      <c r="M23" s="35"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="32"/>
+      <c r="K23" s="32"/>
+      <c r="L23" s="32"/>
+      <c r="M23" s="33"/>
     </row>
     <row r="24" spans="5:13" x14ac:dyDescent="0.4">
       <c r="E24" s="6">
         <v>1</v>
       </c>
-      <c r="F24" s="36" t="s">
+      <c r="F24" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="G24" s="36" t="s">
+      <c r="G24" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="H24" s="37" t="s">
+      <c r="H24" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="I24" s="37"/>
-      <c r="J24" s="37"/>
-      <c r="K24" s="37"/>
-      <c r="L24" s="37"/>
-      <c r="M24" s="37"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="34"/>
+      <c r="L24" s="34"/>
+      <c r="M24" s="34"/>
     </row>
     <row r="25" spans="5:13" x14ac:dyDescent="0.4">
       <c r="E25" s="6">
         <v>2</v>
       </c>
-      <c r="F25" s="36" t="s">
+      <c r="F25" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="G25" s="36" t="s">
+      <c r="G25" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="H25" s="37" t="s">
+      <c r="H25" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="I25" s="37"/>
-      <c r="J25" s="37"/>
-      <c r="K25" s="37"/>
-      <c r="L25" s="37"/>
-      <c r="M25" s="37"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="34"/>
+      <c r="L25" s="34"/>
+      <c r="M25" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -43497,73 +43497,73 @@
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="17" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A17" s="30" t="s">
+      <c r="A17" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
     </row>
     <row r="31" spans="1:14" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="24" t="s">
+      <c r="A31" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="B31" s="24"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
-      <c r="F31" s="24" t="s">
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="F31" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="G31" s="32"/>
-      <c r="H31" s="32"/>
-      <c r="I31" s="32"/>
-      <c r="K31" s="24" t="s">
+      <c r="G31" s="37"/>
+      <c r="H31" s="37"/>
+      <c r="I31" s="37"/>
+      <c r="K31" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="L31" s="32"/>
-      <c r="M31" s="32"/>
-      <c r="N31" s="32"/>
+      <c r="L31" s="37"/>
+      <c r="M31" s="37"/>
+      <c r="N31" s="37"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A32" s="24"/>
-      <c r="B32" s="24"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="32"/>
-      <c r="H32" s="32"/>
-      <c r="I32" s="32"/>
-      <c r="K32" s="32"/>
-      <c r="L32" s="32"/>
-      <c r="M32" s="32"/>
-      <c r="N32" s="32"/>
+      <c r="A32" s="25"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="37"/>
+      <c r="I32" s="37"/>
+      <c r="K32" s="37"/>
+      <c r="L32" s="37"/>
+      <c r="M32" s="37"/>
+      <c r="N32" s="37"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A33" s="24"/>
-      <c r="B33" s="24"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="32"/>
-      <c r="I33" s="32"/>
-      <c r="K33" s="32"/>
-      <c r="L33" s="32"/>
-      <c r="M33" s="32"/>
-      <c r="N33" s="32"/>
+      <c r="A33" s="25"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="37"/>
+      <c r="I33" s="37"/>
+      <c r="K33" s="37"/>
+      <c r="L33" s="37"/>
+      <c r="M33" s="37"/>
+      <c r="N33" s="37"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A34" s="24"/>
-      <c r="B34" s="24"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="32"/>
-      <c r="I34" s="32"/>
-      <c r="K34" s="32"/>
-      <c r="L34" s="32"/>
-      <c r="M34" s="32"/>
-      <c r="N34" s="32"/>
+      <c r="A34" s="25"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="25"/>
+      <c r="F34" s="37"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="37"/>
+      <c r="I34" s="37"/>
+      <c r="K34" s="37"/>
+      <c r="L34" s="37"/>
+      <c r="M34" s="37"/>
+      <c r="N34" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/유닛 및 건물/건물알고리즘.xlsx
+++ b/유닛 및 건물/건물알고리즘.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Sheperd_Holidays\유닛 및 건물\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\home_pc\OneDrive\바탕 화면\Sheperd_Holidays\유닛 및 건물\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{395B3FFB-38BC-45F5-AF35-E3C9EAB7E412}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83090CBE-6BE4-46ED-96EA-CA2EAFD70AB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="516" windowWidth="20064" windowHeight="11184" firstSheet="1" activeTab="3" xr2:uid="{3420EE1F-B79F-4D70-BE33-A8D37B33DBA4}"/>
+    <workbookView xWindow="2715" yWindow="510" windowWidth="19065" windowHeight="14460" firstSheet="1" activeTab="3" xr2:uid="{3420EE1F-B79F-4D70-BE33-A8D37B33DBA4}"/>
   </bookViews>
   <sheets>
     <sheet name="건물 목록" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="60">
   <si>
     <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -267,6 +267,18 @@
   </si>
   <si>
     <t>생산 큐에 삽입된 유닛 수에 따라 사각형을 출력합니다.</t>
+  </si>
+  <si>
+    <t>2-1. 클릭 시 해당 유닛 큐에서 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클릭한 유닛이 훈련 중이고 다음 순서에 있는 유닛이 동일할 경우 훈련 시간은 초기화 되지 않음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>훈련시간 초기화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -834,7 +846,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8610610" y="1875904"/>
+          <a:off x="8711055" y="1827413"/>
           <a:ext cx="905384" cy="864690"/>
           <a:chOff x="12839221" y="2643595"/>
           <a:chExt cx="1698649" cy="1407640"/>
@@ -1585,7 +1597,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7485225" y="1882061"/>
+          <a:off x="7585671" y="1833570"/>
           <a:ext cx="985972" cy="874746"/>
           <a:chOff x="10719773" y="2643596"/>
           <a:chExt cx="1829278" cy="1423851"/>
@@ -2032,7 +2044,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6420197" y="1852471"/>
+          <a:off x="6510251" y="1803980"/>
           <a:ext cx="822049" cy="874746"/>
           <a:chOff x="8840790" y="2659380"/>
           <a:chExt cx="1536985" cy="1423851"/>
@@ -2291,7 +2303,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6570315" y="3277253"/>
+          <a:off x="6660369" y="3225298"/>
           <a:ext cx="616934" cy="591435"/>
           <a:chOff x="9086844" y="5072464"/>
           <a:chExt cx="804402" cy="771155"/>
@@ -2682,7 +2694,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7686488" y="2897265"/>
+          <a:off x="7786934" y="2845310"/>
           <a:ext cx="611952" cy="995484"/>
           <a:chOff x="9086844" y="4550277"/>
           <a:chExt cx="804402" cy="1293342"/>
@@ -3073,7 +3085,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8800311" y="2884346"/>
+          <a:off x="8900756" y="2832391"/>
           <a:ext cx="540098" cy="977116"/>
           <a:chOff x="13277872" y="4213195"/>
           <a:chExt cx="918649" cy="1658587"/>
@@ -3802,7 +3814,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6408734" y="5332083"/>
+          <a:off x="6498788" y="5255883"/>
           <a:ext cx="910446" cy="494021"/>
           <a:chOff x="1154141" y="3146524"/>
           <a:chExt cx="1403436" cy="761525"/>
@@ -4735,7 +4747,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7530139" y="5228616"/>
+          <a:off x="7630585" y="5152416"/>
           <a:ext cx="859875" cy="552498"/>
           <a:chOff x="1154139" y="3006291"/>
           <a:chExt cx="1403438" cy="901756"/>
@@ -5988,7 +6000,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8600269" y="5237417"/>
+          <a:off x="8700714" y="5161217"/>
           <a:ext cx="919882" cy="521195"/>
           <a:chOff x="1077199" y="2996955"/>
           <a:chExt cx="1608034" cy="911094"/>
@@ -8747,8 +8759,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="403860" y="413139"/>
-          <a:ext cx="1554480" cy="1730875"/>
+          <a:off x="405765" y="401709"/>
+          <a:ext cx="1573530" cy="1639435"/>
           <a:chOff x="1576634" y="2104018"/>
           <a:chExt cx="1554480" cy="1730875"/>
         </a:xfrm>
@@ -10979,8 +10991,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3573780" y="861060"/>
-          <a:ext cx="984934" cy="984934"/>
+          <a:off x="3594735" y="826770"/>
+          <a:ext cx="984934" cy="927784"/>
           <a:chOff x="2818282" y="2886807"/>
           <a:chExt cx="984934" cy="984934"/>
         </a:xfrm>
@@ -17541,8 +17553,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10978739" y="2218707"/>
-          <a:ext cx="5794169" cy="3382785"/>
+          <a:off x="11065824" y="2082635"/>
+          <a:ext cx="5837712" cy="3178679"/>
           <a:chOff x="3238500" y="1707919"/>
           <a:chExt cx="5715000" cy="3442162"/>
         </a:xfrm>
@@ -18652,8 +18664,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3039932" y="53341"/>
-          <a:ext cx="8690339" cy="4303262"/>
+          <a:off x="3062344" y="53341"/>
+          <a:ext cx="8836015" cy="4090351"/>
           <a:chOff x="4225" y="1"/>
           <a:chExt cx="7175134" cy="3633200"/>
         </a:xfrm>
@@ -19283,8 +19295,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="212912" y="805915"/>
-          <a:ext cx="1944168" cy="2416817"/>
+          <a:off x="212912" y="772297"/>
+          <a:ext cx="1955374" cy="2293553"/>
           <a:chOff x="266700" y="1854785"/>
           <a:chExt cx="1944168" cy="2416817"/>
         </a:xfrm>
@@ -20776,8 +20788,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6306680" y="2652862"/>
-          <a:ext cx="248052" cy="248948"/>
+          <a:off x="6385122" y="2529597"/>
+          <a:ext cx="248052" cy="237742"/>
           <a:chOff x="6210825" y="2455598"/>
           <a:chExt cx="324789" cy="324156"/>
         </a:xfrm>
@@ -20992,8 +21004,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9171938" y="2635277"/>
-          <a:ext cx="252190" cy="248948"/>
+          <a:off x="9295203" y="2512012"/>
+          <a:ext cx="263396" cy="237742"/>
           <a:chOff x="6210825" y="2455598"/>
           <a:chExt cx="324789" cy="324156"/>
         </a:xfrm>
@@ -21208,8 +21220,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9166076" y="2334958"/>
-          <a:ext cx="252190" cy="248949"/>
+          <a:off x="9289341" y="2222900"/>
+          <a:ext cx="263396" cy="237742"/>
           <a:chOff x="6210825" y="2455598"/>
           <a:chExt cx="324789" cy="324156"/>
         </a:xfrm>
@@ -21424,8 +21436,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9160214" y="2040503"/>
-          <a:ext cx="248052" cy="248947"/>
+          <a:off x="9283479" y="1939650"/>
+          <a:ext cx="248052" cy="237742"/>
           <a:chOff x="6210825" y="2455598"/>
           <a:chExt cx="324789" cy="324156"/>
         </a:xfrm>
@@ -21640,8 +21652,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9160214" y="1744667"/>
-          <a:ext cx="248052" cy="248947"/>
+          <a:off x="9283479" y="1666225"/>
+          <a:ext cx="248052" cy="237742"/>
           <a:chOff x="6210825" y="2455598"/>
           <a:chExt cx="324789" cy="324156"/>
         </a:xfrm>
@@ -21856,8 +21868,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9160214" y="1456073"/>
-          <a:ext cx="248052" cy="248949"/>
+          <a:off x="9283479" y="1388838"/>
+          <a:ext cx="248052" cy="237742"/>
           <a:chOff x="6210825" y="2455598"/>
           <a:chExt cx="324789" cy="324156"/>
         </a:xfrm>
@@ -22077,8 +22089,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5778064" y="464673"/>
-          <a:ext cx="5804065" cy="3382785"/>
+          <a:off x="5821607" y="437458"/>
+          <a:ext cx="5853050" cy="3178678"/>
           <a:chOff x="3238500" y="1707919"/>
           <a:chExt cx="5715000" cy="3442162"/>
         </a:xfrm>
@@ -24991,8 +25003,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="122586" y="2865120"/>
-          <a:ext cx="1991212" cy="2589319"/>
+          <a:off x="122586" y="2727960"/>
+          <a:ext cx="2036932" cy="2452159"/>
           <a:chOff x="2816458" y="754380"/>
           <a:chExt cx="2741944" cy="3565549"/>
         </a:xfrm>
@@ -26255,8 +26267,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8053754" y="2865120"/>
-          <a:ext cx="1991212" cy="2589316"/>
+          <a:off x="8236634" y="2727960"/>
+          <a:ext cx="2021692" cy="2452156"/>
           <a:chOff x="2816458" y="754380"/>
           <a:chExt cx="2741944" cy="3565549"/>
         </a:xfrm>
@@ -27481,8 +27493,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="544324" y="4072041"/>
-          <a:ext cx="772102" cy="744378"/>
+          <a:off x="544324" y="3866301"/>
+          <a:ext cx="787342" cy="710088"/>
           <a:chOff x="0" y="0"/>
           <a:chExt cx="1021618" cy="984934"/>
         </a:xfrm>
@@ -31176,8 +31188,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5836146" y="318702"/>
-          <a:ext cx="1372646" cy="2785794"/>
+          <a:off x="5925793" y="307496"/>
+          <a:ext cx="1395058" cy="2651324"/>
           <a:chOff x="6465541" y="762113"/>
           <a:chExt cx="1369061" cy="2748143"/>
         </a:xfrm>
@@ -31989,8 +32001,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7669709" y="333805"/>
-          <a:ext cx="2047528" cy="2775634"/>
+          <a:off x="7792974" y="322599"/>
+          <a:ext cx="2081146" cy="2641164"/>
           <a:chOff x="8317233" y="767218"/>
           <a:chExt cx="2042149" cy="2737983"/>
         </a:xfrm>
@@ -33044,8 +33056,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4138235" y="318702"/>
-          <a:ext cx="1276205" cy="2785794"/>
+          <a:off x="4205470" y="307496"/>
+          <a:ext cx="1298617" cy="2651324"/>
           <a:chOff x="4619819" y="896091"/>
           <a:chExt cx="1272619" cy="2748143"/>
         </a:xfrm>
@@ -34215,8 +34227,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="106680" y="4023360"/>
-          <a:ext cx="1996591" cy="2626971"/>
+          <a:off x="106680" y="3832860"/>
+          <a:ext cx="2030208" cy="2492500"/>
           <a:chOff x="2816458" y="754380"/>
           <a:chExt cx="2741944" cy="3565549"/>
         </a:xfrm>
@@ -35479,8 +35491,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="533400" y="5243214"/>
-          <a:ext cx="746171" cy="754312"/>
+          <a:off x="533400" y="4985479"/>
+          <a:ext cx="757377" cy="720694"/>
           <a:chOff x="0" y="-689"/>
           <a:chExt cx="984934" cy="985623"/>
         </a:xfrm>
@@ -36741,8 +36753,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7046256" y="4061011"/>
-          <a:ext cx="1991212" cy="2589319"/>
+          <a:off x="7158315" y="3859305"/>
+          <a:ext cx="2024830" cy="2466054"/>
           <a:chOff x="2816458" y="754380"/>
           <a:chExt cx="2741944" cy="3565549"/>
         </a:xfrm>
@@ -38159,8 +38171,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3648635" y="4016188"/>
-          <a:ext cx="1991212" cy="2589316"/>
+          <a:off x="3704664" y="3825688"/>
+          <a:ext cx="2024830" cy="2454845"/>
           <a:chOff x="4954952" y="620530"/>
           <a:chExt cx="1991212" cy="2589316"/>
         </a:xfrm>
@@ -40218,8 +40230,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="228600" y="304800"/>
-          <a:ext cx="5969176" cy="4903675"/>
+          <a:off x="228600" y="293370"/>
+          <a:ext cx="6106336" cy="4652215"/>
           <a:chOff x="1347224" y="917357"/>
           <a:chExt cx="5969176" cy="4903675"/>
         </a:xfrm>
@@ -42740,19 +42752,19 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.09765625" customWidth="1"/>
-    <col min="7" max="7" width="20.19921875" customWidth="1"/>
-    <col min="8" max="8" width="14.19921875" customWidth="1"/>
+    <col min="3" max="3" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.125" customWidth="1"/>
+    <col min="7" max="7" width="20.25" customWidth="1"/>
+    <col min="8" max="8" width="14.25" customWidth="1"/>
     <col min="9" max="9" width="14.5" customWidth="1"/>
-    <col min="10" max="10" width="13.59765625" customWidth="1"/>
-    <col min="11" max="11" width="6.09765625" customWidth="1"/>
+    <col min="10" max="10" width="13.625" customWidth="1"/>
+    <col min="11" max="11" width="6.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -42787,7 +42799,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="85.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
@@ -42812,7 +42824,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="86.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" ht="86.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>11</v>
       </c>
@@ -42839,7 +42851,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="85.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>12</v>
       </c>
@@ -42866,7 +42878,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:14" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>13</v>
       </c>
@@ -42893,7 +42905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="85.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:14" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>14</v>
       </c>
@@ -42920,7 +42932,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="89.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:14" ht="89.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>16</v>
       </c>
@@ -42947,7 +42959,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="94.8" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:14" ht="94.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>17</v>
       </c>
@@ -42974,7 +42986,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="99.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:14" ht="99.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -42983,7 +42995,7 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
     </row>
-    <row r="12" spans="1:14" ht="94.8" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:14" ht="94.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
@@ -43008,14 +43020,14 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.09765625" customWidth="1"/>
-    <col min="2" max="2" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.125" customWidth="1"/>
+    <col min="2" max="2" width="9.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F1" s="24"/>
       <c r="G1" s="24"/>
       <c r="H1" s="24"/>
@@ -43023,7 +43035,7 @@
       <c r="J1" s="24"/>
       <c r="K1" s="24"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F2" s="24"/>
       <c r="G2" s="24"/>
       <c r="H2" s="24"/>
@@ -43031,7 +43043,7 @@
       <c r="J2" s="24"/>
       <c r="K2" s="24"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F3" s="24"/>
       <c r="G3" s="24"/>
       <c r="H3" s="24"/>
@@ -43039,7 +43051,7 @@
       <c r="J3" s="24"/>
       <c r="K3" s="24"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F4" s="24"/>
       <c r="G4" s="24"/>
       <c r="H4" s="24"/>
@@ -43047,7 +43059,7 @@
       <c r="J4" s="24"/>
       <c r="K4" s="24"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F5" s="24"/>
       <c r="G5" s="24"/>
       <c r="H5" s="24"/>
@@ -43055,7 +43067,7 @@
       <c r="J5" s="24"/>
       <c r="K5" s="24"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F6" s="24"/>
       <c r="G6" s="24"/>
       <c r="H6" s="24"/>
@@ -43063,7 +43075,7 @@
       <c r="J6" s="24"/>
       <c r="K6" s="24"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="25" t="s">
         <v>46</v>
       </c>
@@ -43071,61 +43083,61 @@
       <c r="C12" s="26"/>
       <c r="D12" s="26"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="26"/>
       <c r="B13" s="26"/>
       <c r="C13" s="26"/>
       <c r="D13" s="26"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="26"/>
       <c r="B14" s="26"/>
       <c r="C14" s="26"/>
       <c r="D14" s="26"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="14"/>
       <c r="B16" s="14"/>
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="14"/>
       <c r="B17" s="14"/>
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
       <c r="D19" s="11"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
       <c r="D20" s="11"/>
     </row>
-    <row r="27" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:4" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="18"/>
       <c r="B27" s="19"/>
       <c r="C27" s="19"/>
       <c r="D27" s="19"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="19"/>
       <c r="B28" s="19"/>
       <c r="C28" s="19"/>
       <c r="D28" s="19"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="27" t="s">
         <v>41</v>
       </c>
@@ -43133,19 +43145,19 @@
       <c r="C29" s="28"/>
       <c r="D29" s="28"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="28"/>
       <c r="B30" s="28"/>
       <c r="C30" s="28"/>
       <c r="D30" s="28"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="28"/>
       <c r="B31" s="28"/>
       <c r="C31" s="28"/>
       <c r="D31" s="28"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="8" t="s">
         <v>26</v>
       </c>
@@ -43159,7 +43171,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="7">
         <v>1</v>
       </c>
@@ -43173,7 +43185,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="7">
         <v>2</v>
       </c>
@@ -43187,7 +43199,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="7">
         <v>3</v>
       </c>
@@ -43201,7 +43213,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="20">
         <v>4</v>
       </c>
@@ -43215,7 +43227,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F41" s="17"/>
       <c r="G41" s="14"/>
       <c r="H41" s="14"/>
@@ -43223,7 +43235,7 @@
       <c r="J41" s="14"/>
       <c r="K41" s="14"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F42" s="14"/>
       <c r="G42" s="14"/>
       <c r="H42" s="14"/>
@@ -43231,7 +43243,7 @@
       <c r="J42" s="14"/>
       <c r="K42" s="14"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F43" s="14"/>
       <c r="G43" s="14"/>
       <c r="H43" s="14"/>
@@ -43239,7 +43251,7 @@
       <c r="J43" s="14"/>
       <c r="K43" s="14"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F44" s="14"/>
       <c r="G44" s="14"/>
       <c r="H44" s="14"/>
@@ -43247,7 +43259,7 @@
       <c r="J44" s="14"/>
       <c r="K44" s="14"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F45" s="14"/>
       <c r="G45" s="14"/>
       <c r="H45" s="14"/>
@@ -43255,43 +43267,43 @@
       <c r="J45" s="14"/>
       <c r="K45" s="14"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="13"/>
       <c r="B50" s="12"/>
       <c r="C50" s="12"/>
       <c r="D50" s="12"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="12"/>
       <c r="B51" s="12"/>
       <c r="C51" s="12"/>
       <c r="D51" s="16"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="12"/>
       <c r="B52" s="12"/>
       <c r="C52" s="12"/>
       <c r="D52" s="16"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="12"/>
       <c r="B53" s="12"/>
       <c r="C53" s="12"/>
       <c r="D53" s="16"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="24"/>
       <c r="B55" s="24"/>
       <c r="C55" s="24"/>
       <c r="D55" s="24"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="24"/>
       <c r="B56" s="24"/>
       <c r="C56" s="24"/>
       <c r="D56" s="24"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="24"/>
       <c r="B57" s="24"/>
       <c r="C57" s="24"/>
@@ -43319,14 +43331,14 @@
       <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>40</v>
       </c>
@@ -43334,13 +43346,13 @@
       <c r="C2" s="29"/>
       <c r="D2" s="29"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="29"/>
       <c r="B3" s="29"/>
       <c r="C3" s="29"/>
       <c r="D3" s="29"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C6" s="30"/>
       <c r="D6" s="30"/>
       <c r="E6" s="30"/>
@@ -43359,18 +43371,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA7C9376-7F84-4077-964E-5E391732AB98}">
-  <dimension ref="E23:M25"/>
+  <dimension ref="E23:M29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S20" sqref="S20"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="8.796875" customWidth="1"/>
+    <col min="1" max="2" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="23" spans="5:13" x14ac:dyDescent="0.4">
+    <row r="23" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E23" s="15" t="s">
         <v>47</v>
       </c>
@@ -43389,7 +43401,7 @@
       <c r="L23" s="32"/>
       <c r="M23" s="33"/>
     </row>
-    <row r="24" spans="5:13" x14ac:dyDescent="0.4">
+    <row r="24" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E24" s="6">
         <v>1</v>
       </c>
@@ -43408,7 +43420,7 @@
       <c r="L24" s="34"/>
       <c r="M24" s="34"/>
     </row>
-    <row r="25" spans="5:13" x14ac:dyDescent="0.4">
+    <row r="25" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E25" s="6">
         <v>2</v>
       </c>
@@ -43426,6 +43438,21 @@
       <c r="K25" s="34"/>
       <c r="L25" s="34"/>
       <c r="M25" s="34"/>
+    </row>
+    <row r="27" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E27" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="F28" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="F29" t="s">
+        <v>58</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -43447,7 +43474,7 @@
       <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -43463,7 +43490,7 @@
       <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -43478,7 +43505,7 @@
       <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -43494,16 +43521,16 @@
       <selection activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="35" t="s">
         <v>45</v>
       </c>
       <c r="B17" s="36"/>
       <c r="C17" s="36"/>
     </row>
-    <row r="31" spans="1:14" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="25" t="s">
         <v>43</v>
       </c>
@@ -43523,7 +43550,7 @@
       <c r="M31" s="37"/>
       <c r="N31" s="37"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="25"/>
       <c r="B32" s="25"/>
       <c r="C32" s="25"/>
@@ -43537,7 +43564,7 @@
       <c r="M32" s="37"/>
       <c r="N32" s="37"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="25"/>
       <c r="B33" s="25"/>
       <c r="C33" s="25"/>
@@ -43551,7 +43578,7 @@
       <c r="M33" s="37"/>
       <c r="N33" s="37"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="25"/>
       <c r="B34" s="25"/>
       <c r="C34" s="25"/>
@@ -43587,7 +43614,7 @@
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/유닛 및 건물/건물알고리즘.xlsx
+++ b/유닛 및 건물/건물알고리즘.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Sheperd_Holidays\유닛 및 건물\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{395B3FFB-38BC-45F5-AF35-E3C9EAB7E412}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2010FE76-7B69-46C7-A0B6-FF6043937906}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="516" windowWidth="20064" windowHeight="11184" firstSheet="1" activeTab="3" xr2:uid="{3420EE1F-B79F-4D70-BE33-A8D37B33DBA4}"/>
+    <workbookView xWindow="0" yWindow="516" windowWidth="20064" windowHeight="11184" firstSheet="3" activeTab="7" xr2:uid="{3420EE1F-B79F-4D70-BE33-A8D37B33DBA4}"/>
   </bookViews>
   <sheets>
     <sheet name="건물 목록" sheetId="1" r:id="rId1"/>
@@ -32289,16 +32289,37 @@
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>유닛 생산 쿨타임 </a:t>
+              <a:t>유닛 생산</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="ko-KR" sz="1000">
+              <a:rPr lang="ko-KR" altLang="en-US" sz="1000" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>-= 5(s)</a:t>
+              <a:t> 감소</a:t>
             </a:r>
+            <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1000" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="1000" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>유닛 해금</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -43361,7 +43382,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA7C9376-7F84-4077-964E-5E391732AB98}">
   <dimension ref="E23:M25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="S20" sqref="S20"/>
     </sheetView>
   </sheetViews>
@@ -43490,8 +43511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88600E79-E5AB-4B05-88F3-1BEEFBE8FE97}">
   <dimension ref="A17:N34"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T9" sqref="T9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S21" sqref="S21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -43583,8 +43604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46264244-2EC8-4F22-8440-BBBF1FF7593D}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>

--- a/유닛 및 건물/건물알고리즘.xlsx
+++ b/유닛 및 건물/건물알고리즘.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Sheperd_Holidays\유닛 및 건물\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{841480BD-BCE7-45D4-A845-78E540335DE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70F88EF2-D159-4A86-AAC5-3D2DA42DB434}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="5" xr2:uid="{3420EE1F-B79F-4D70-BE33-A8D37B33DBA4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3420EE1F-B79F-4D70-BE33-A8D37B33DBA4}"/>
   </bookViews>
   <sheets>
     <sheet name="건물 목록" sheetId="1" r:id="rId1"/>
@@ -251,9 +251,6 @@
     <t>텍스트</t>
   </si>
   <si>
-    <t>유닛 생산 큐</t>
-  </si>
-  <si>
     <t>이미지</t>
   </si>
   <si>
@@ -266,7 +263,14 @@
     <t>현재 훈련 중인 유닛의 생산시간을 출력합니다.</t>
   </si>
   <si>
-    <t>생산 큐에 삽입된 유닛 수에 따라 사각형을 출력합니다.</t>
+    <t>생산 큐에 삽입된 유닛 수에 따라 사각형을 출력합니다.
+생산이 진행중인 유닛은 다른형태의 테두리로 출력됩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유닛 
+생산 큐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -426,7 +430,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -499,6 +503,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -540,6 +547,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -20524,7 +20537,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>생산하고 있는 유닛이 건물의 좌측에 출력됩니다</a:t>
+            <a:t>대기열에 있는 유닛이 건물의 좌측에 출력됩니다</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="1000">
@@ -20552,8 +20565,8 @@
       <xdr:rowOff>125506</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>510540</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>161365</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>198120</xdr:rowOff>
     </xdr:to>
@@ -20571,7 +20584,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9075868" y="125506"/>
-          <a:ext cx="2192319" cy="744967"/>
+          <a:ext cx="2515497" cy="744967"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -20716,6 +20729,28 @@
             </a:rPr>
             <a:t>. </a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>큐는 아래쪽부터 삽입됩니다</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="1000">
               <a:solidFill>
@@ -20804,9 +20839,9 @@
           <a:solidFill>
             <a:schemeClr val="bg1"/>
           </a:solidFill>
-          <a:ln>
+          <a:ln w="28575">
             <a:solidFill>
-              <a:srgbClr val="0070C0"/>
+              <a:srgbClr val="00B050"/>
             </a:solidFill>
           </a:ln>
         </xdr:spPr>
@@ -21020,9 +21055,9 @@
           <a:solidFill>
             <a:schemeClr val="bg1"/>
           </a:solidFill>
-          <a:ln>
+          <a:ln w="28575">
             <a:solidFill>
-              <a:srgbClr val="0070C0"/>
+              <a:srgbClr val="00B050"/>
             </a:solidFill>
           </a:ln>
         </xdr:spPr>
@@ -22044,6 +22079,346 @@
         </xdr:spPr>
       </xdr:pic>
     </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>242047</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>169421</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>589568</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>143435</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="직사각형 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96C9BE4A-8AAA-4250-9D7F-728EC4D32D58}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6293223" y="1290009"/>
+          <a:ext cx="347521" cy="198132"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ko-KR"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>20</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>376518</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>160457</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>51686</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="직사각형 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{957E0A23-0379-4A52-A10E-B9519E2E6598}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9117106" y="1281045"/>
+          <a:ext cx="347521" cy="198132"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ko-KR"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>20</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -24983,7 +25358,7 @@
         <xdr:cNvPr id="2" name="그룹 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{449D0CD2-AD6D-4AC8-8B17-F32C7A978B1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25002,7 +25377,7 @@
           <xdr:cNvPr id="3" name="연결선: 꺾임 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75E03C86-8BB2-4ACA-BE4D-B88888ACFA00}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -25050,7 +25425,7 @@
           <xdr:cNvPr id="4" name="그룹 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAD5627A-ECEF-4D38-A41B-E76D75688A16}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -25069,7 +25444,7 @@
             <xdr:cNvPr id="22" name="그룹 21">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F951788-2BB2-4399-9AE4-945AB18A5A01}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000016000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -25088,7 +25463,7 @@
               <xdr:cNvPr id="27" name="순서도: 판단 26">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B4ED3B1-2505-4434-A723-1C0022BFE191}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001B000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -25263,7 +25638,7 @@
               <xdr:cNvPr id="28" name="직사각형 27">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13BA848F-4FF2-4A02-B87D-8B36784CC39D}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001C000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -25430,7 +25805,7 @@
               <xdr:cNvPr id="29" name="직선 화살표 연결선 28">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90D65C41-034A-4836-B967-17C085B91DA4}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001D000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -25475,7 +25850,7 @@
               <xdr:cNvPr id="30" name="직사각형 29">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F26FC087-D634-4BB4-925C-075D94081DA3}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001E000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -25642,7 +26017,7 @@
               <xdr:cNvPr id="31" name="직선 화살표 연결선 30">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B22E37FE-235A-439B-B08F-EDFF8F6A4A47}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001F000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -25687,7 +26062,7 @@
               <xdr:cNvPr id="32" name="직사각형 31">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31B4CC6A-5B1D-45D5-8A62-AFDCCCFEF98D}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000020000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -25833,7 +26208,7 @@
             <xdr:cNvPr id="23" name="TextBox 120">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A08A66FC-B296-49F7-93E9-E91CE81C3A48}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000017000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -25971,7 +26346,7 @@
             <xdr:cNvPr id="24" name="TextBox 143">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE26AE99-2CA5-4D4E-87BA-10EE91B51109}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000018000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -26109,7 +26484,7 @@
             <xdr:cNvPr id="25" name="직사각형 24">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13E5CE2D-BACF-41A0-8284-8BE899029E46}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000019000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -26276,7 +26651,7 @@
             <xdr:cNvPr id="26" name="직선 화살표 연결선 25">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{744233C8-18CA-47D8-A5D3-9674BDC828F9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001A000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -26322,7 +26697,7 @@
           <xdr:cNvPr id="5" name="그룹 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C42E830-9EA0-4689-9AA8-0346CD850DE6}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000005000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -26341,7 +26716,7 @@
             <xdr:cNvPr id="11" name="그룹 10">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8D13B05-BC50-452B-80C6-8D73F91D20E1}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000B000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -26360,7 +26735,7 @@
               <xdr:cNvPr id="16" name="순서도: 판단 15">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C6ACCFF-D9D8-4863-ACD7-0EDF8EB94C89}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000010000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -26535,7 +26910,7 @@
               <xdr:cNvPr id="17" name="직사각형 16">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CF01100-B41D-4874-AEE2-5E6699038409}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000011000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -26702,7 +27077,7 @@
               <xdr:cNvPr id="18" name="직선 화살표 연결선 17">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EB4BB14-34F1-4D26-9D47-C2BE23CC5EEE}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000012000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -26747,7 +27122,7 @@
               <xdr:cNvPr id="19" name="직사각형 18">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B6C63A4-CED1-4205-B9B1-ABAF5F7159E2}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000013000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -26914,7 +27289,7 @@
               <xdr:cNvPr id="20" name="직선 화살표 연결선 19">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D9E8742-B73D-43FF-A79B-919C9EEF5D32}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000014000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -26959,7 +27334,7 @@
               <xdr:cNvPr id="21" name="직사각형 20">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E8A5854-C3E5-4140-B139-384413E3D285}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000015000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -27105,7 +27480,7 @@
             <xdr:cNvPr id="12" name="TextBox 120">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E0EAF47-4DD9-4B94-8A0E-4C9DF9D0CE46}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000C000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -27243,7 +27618,7 @@
             <xdr:cNvPr id="13" name="TextBox 143">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{165E6A5D-A92D-412A-AF46-79EF7D16B8D8}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000D000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -27381,7 +27756,7 @@
             <xdr:cNvPr id="14" name="직사각형 13">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9F9CF01-CCB7-4F29-B2E5-61F2C5C2D660}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000E000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -27548,7 +27923,7 @@
             <xdr:cNvPr id="15" name="직선 화살표 연결선 14">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B0F1381-0806-4265-9BF8-5D1A01306871}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000F000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -27594,7 +27969,7 @@
           <xdr:cNvPr id="6" name="연결선: 꺾임 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1640ADB0-7ADD-44A9-B87D-9EBAA2C0F061}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000006000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -27643,7 +28018,7 @@
           <xdr:cNvPr id="7" name="직사각형 6">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D390992A-348A-4788-9716-D8B17CF53A97}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000007000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -27795,7 +28170,7 @@
           <xdr:cNvPr id="8" name="직사각형 7">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75163E51-C5F1-4EB2-B2E4-6AFC1626B96B}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000008000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -27962,7 +28337,7 @@
           <xdr:cNvPr id="9" name="타원 8">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2AF05EF-27C1-44B7-A014-FDD2BCB44B26}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000009000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -28121,7 +28496,7 @@
           <xdr:cNvPr id="10" name="타원 9">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CD639B2-6D31-4BAA-A03D-F1EC15D9EB91}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000A000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -28296,7 +28671,7 @@
         <xdr:cNvPr id="67" name="그룹 66">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F54B432-E9A8-4E06-BE5D-981FB41C88C8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000043000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28315,7 +28690,7 @@
           <xdr:cNvPr id="68" name="연결선: 꺾임 67">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75E03C86-8BB2-4ACA-BE4D-B88888ACFA00}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000044000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -28363,7 +28738,7 @@
           <xdr:cNvPr id="69" name="그룹 68">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAD5627A-ECEF-4D38-A41B-E76D75688A16}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000045000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -28382,7 +28757,7 @@
             <xdr:cNvPr id="87" name="그룹 86">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F951788-2BB2-4399-9AE4-945AB18A5A01}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000057000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -28401,7 +28776,7 @@
               <xdr:cNvPr id="92" name="순서도: 판단 91">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B4ED3B1-2505-4434-A723-1C0022BFE191}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00005C000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -28576,7 +28951,7 @@
               <xdr:cNvPr id="93" name="직사각형 92">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13BA848F-4FF2-4A02-B87D-8B36784CC39D}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00005D000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -28743,7 +29118,7 @@
               <xdr:cNvPr id="94" name="직선 화살표 연결선 93">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90D65C41-034A-4836-B967-17C085B91DA4}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00005E000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -28788,7 +29163,7 @@
               <xdr:cNvPr id="95" name="직사각형 94">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F26FC087-D634-4BB4-925C-075D94081DA3}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00005F000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -28955,7 +29330,7 @@
               <xdr:cNvPr id="96" name="직선 화살표 연결선 95">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B22E37FE-235A-439B-B08F-EDFF8F6A4A47}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000060000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -29000,7 +29375,7 @@
               <xdr:cNvPr id="97" name="직사각형 96">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31B4CC6A-5B1D-45D5-8A62-AFDCCCFEF98D}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000061000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -29146,7 +29521,7 @@
             <xdr:cNvPr id="88" name="TextBox 120">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A08A66FC-B296-49F7-93E9-E91CE81C3A48}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000058000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -29284,7 +29659,7 @@
             <xdr:cNvPr id="89" name="TextBox 143">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE26AE99-2CA5-4D4E-87BA-10EE91B51109}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000059000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -29422,7 +29797,7 @@
             <xdr:cNvPr id="90" name="직사각형 89">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13E5CE2D-BACF-41A0-8284-8BE899029E46}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00005A000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -29589,7 +29964,7 @@
             <xdr:cNvPr id="91" name="직선 화살표 연결선 90">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{744233C8-18CA-47D8-A5D3-9674BDC828F9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00005B000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -29635,7 +30010,7 @@
           <xdr:cNvPr id="70" name="그룹 69">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C42E830-9EA0-4689-9AA8-0346CD850DE6}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000046000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -29654,7 +30029,7 @@
             <xdr:cNvPr id="76" name="그룹 75">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8D13B05-BC50-452B-80C6-8D73F91D20E1}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00004C000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -29673,7 +30048,7 @@
               <xdr:cNvPr id="81" name="순서도: 판단 80">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C6ACCFF-D9D8-4863-ACD7-0EDF8EB94C89}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000051000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -29848,7 +30223,7 @@
               <xdr:cNvPr id="82" name="직사각형 81">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CF01100-B41D-4874-AEE2-5E6699038409}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000052000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -30015,7 +30390,7 @@
               <xdr:cNvPr id="83" name="직선 화살표 연결선 82">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EB4BB14-34F1-4D26-9D47-C2BE23CC5EEE}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000053000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -30060,7 +30435,7 @@
               <xdr:cNvPr id="84" name="직사각형 83">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B6C63A4-CED1-4205-B9B1-ABAF5F7159E2}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000054000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -30227,7 +30602,7 @@
               <xdr:cNvPr id="85" name="직선 화살표 연결선 84">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D9E8742-B73D-43FF-A79B-919C9EEF5D32}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000055000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -30272,7 +30647,7 @@
               <xdr:cNvPr id="86" name="직사각형 85">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E8A5854-C3E5-4140-B139-384413E3D285}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000056000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -30418,7 +30793,7 @@
             <xdr:cNvPr id="77" name="TextBox 120">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E0EAF47-4DD9-4B94-8A0E-4C9DF9D0CE46}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00004D000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -30556,7 +30931,7 @@
             <xdr:cNvPr id="78" name="TextBox 143">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{165E6A5D-A92D-412A-AF46-79EF7D16B8D8}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00004E000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -30694,7 +31069,7 @@
             <xdr:cNvPr id="79" name="직사각형 78">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9F9CF01-CCB7-4F29-B2E5-61F2C5C2D660}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00004F000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -30861,7 +31236,7 @@
             <xdr:cNvPr id="80" name="직선 화살표 연결선 79">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B0F1381-0806-4265-9BF8-5D1A01306871}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000050000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -30907,7 +31282,7 @@
           <xdr:cNvPr id="71" name="연결선: 꺾임 70">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1640ADB0-7ADD-44A9-B87D-9EBAA2C0F061}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000047000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -30956,7 +31331,7 @@
           <xdr:cNvPr id="72" name="직사각형 71">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D390992A-348A-4788-9716-D8B17CF53A97}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000048000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -31108,7 +31483,7 @@
           <xdr:cNvPr id="73" name="직사각형 72">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75163E51-C5F1-4EB2-B2E4-6AFC1626B96B}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000049000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -31307,7 +31682,7 @@
           <xdr:cNvPr id="74" name="타원 73">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2AF05EF-27C1-44B7-A014-FDD2BCB44B26}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00004A000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -31466,7 +31841,7 @@
           <xdr:cNvPr id="75" name="타원 74">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CD639B2-6D31-4BAA-A03D-F1EC15D9EB91}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00004B000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -31641,7 +32016,7 @@
         <xdr:cNvPr id="101" name="그룹 100">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E953F087-1079-40CE-B227-749E438DC2B6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000065000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31660,7 +32035,7 @@
           <xdr:cNvPr id="102" name="직사각형 101">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED968C0F-F230-40D3-AE1A-8AB084BD75BA}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000066000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -31807,7 +32182,7 @@
           <xdr:cNvPr id="103" name="사각형: 둥근 모서리 102">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2955C55-A204-40B9-A0A6-36C8DC813E2C}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000067000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -31972,7 +32347,7 @@
           <xdr:cNvPr id="104" name="사각형: 둥근 모서리 103">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8150CB48-2C75-4866-8EE3-C80DF0E43E8D}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000068000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -32130,7 +32505,7 @@
           <xdr:cNvPr id="105" name="사각형: 둥근 모서리 104">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F50ED827-16E2-4668-9B37-72A2CFE90417}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000069000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -32288,7 +32663,7 @@
           <xdr:cNvPr id="106" name="그래픽 37" descr="어두움(작은 태양)">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3944B8BD-2C6F-4D37-81F1-DA33F61A0365}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00006A000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -32342,7 +32717,7 @@
         <xdr:cNvPr id="107" name="연결선: 꺾임 106">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7951194-6FD5-4775-AFC9-56DAC08A68C2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00006B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32405,7 +32780,7 @@
         <xdr:cNvPr id="112" name="직사각형 111">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{323F2EB5-2DEE-4380-A9C0-37E0EE2EDF68}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000070000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32569,7 +32944,7 @@
         <xdr:cNvPr id="113" name="직사각형 112">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85115AAA-13B5-4729-BC38-53D9BCBEFEA3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000071000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32738,7 +33113,7 @@
         <xdr:cNvPr id="2" name="직사각형 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32912,7 +33287,7 @@
         <xdr:cNvPr id="3" name="직사각형 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33089,7 +33464,7 @@
         <xdr:cNvPr id="4" name="직선 화살표 연결선 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33149,7 +33524,7 @@
         <xdr:cNvPr id="5" name="직사각형 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33323,7 +33698,7 @@
         <xdr:cNvPr id="6" name="직선 화살표 연결선 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33383,7 +33758,7 @@
         <xdr:cNvPr id="7" name="직사각형 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33557,7 +33932,7 @@
         <xdr:cNvPr id="8" name="직사각형 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33731,7 +34106,7 @@
         <xdr:cNvPr id="9" name="직사각형 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33905,7 +34280,7 @@
         <xdr:cNvPr id="10" name="그룹 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33924,7 +34299,7 @@
           <xdr:cNvPr id="28" name="직사각형 27">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00001C000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00001C000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -34079,7 +34454,7 @@
           <xdr:cNvPr id="29" name="직사각형 28">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00001D000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00001D000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -34249,7 +34624,7 @@
           <xdr:cNvPr id="30" name="직사각형 29">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00001E000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00001E000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -34403,7 +34778,7 @@
           <xdr:cNvPr id="31" name="직사각형 30">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00001F000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00001F000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -34557,7 +34932,7 @@
           <xdr:cNvPr id="32" name="직사각형 31">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000020000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000020000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -34718,7 +35093,7 @@
         <xdr:cNvPr id="11" name="그룹 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -34737,7 +35112,7 @@
           <xdr:cNvPr id="23" name="직사각형 22">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000017000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000017000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -34882,7 +35257,7 @@
           <xdr:cNvPr id="24" name="직사각형 23">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000018000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000018000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -35065,7 +35440,7 @@
           <xdr:cNvPr id="25" name="직사각형 24">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000019000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000019000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -35227,7 +35602,7 @@
           <xdr:cNvPr id="26" name="직사각형 25">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00001A000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00001A000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -35389,7 +35764,7 @@
           <xdr:cNvPr id="27" name="직사각형 26">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00001B000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00001B000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -35560,7 +35935,7 @@
         <xdr:cNvPr id="12" name="직사각형 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -35734,7 +36109,7 @@
         <xdr:cNvPr id="13" name="직선 화살표 연결선 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -35794,7 +36169,7 @@
         <xdr:cNvPr id="14" name="그룹 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -35813,7 +36188,7 @@
           <xdr:cNvPr id="17" name="그룹 16">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000011000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000011000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -35832,7 +36207,7 @@
             <xdr:cNvPr id="19" name="직사각형 18">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000013000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000013000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -35994,7 +36369,7 @@
             <xdr:cNvPr id="20" name="직사각형 19">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000014000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000014000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -36156,7 +36531,7 @@
             <xdr:cNvPr id="21" name="직사각형 20">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000015000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000015000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -36318,7 +36693,7 @@
             <xdr:cNvPr id="22" name="직사각형 21">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000016000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000016000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -36464,7 +36839,7 @@
           <xdr:cNvPr id="18" name="직사각형 17">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000012000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000012000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -36635,7 +37010,7 @@
         <xdr:cNvPr id="15" name="직사각형 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -36795,7 +37170,7 @@
         <xdr:cNvPr id="16" name="직사각형 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -36965,7 +37340,7 @@
         <xdr:cNvPr id="33" name="그룹 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000021000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -36984,7 +37359,7 @@
           <xdr:cNvPr id="34" name="그룹 33">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000022000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000022000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -37003,7 +37378,7 @@
             <xdr:cNvPr id="41" name="직사각형 40">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000029000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000029000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -37152,7 +37527,7 @@
             <xdr:cNvPr id="42" name="직사각형 41">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00002A000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00002A000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -37299,7 +37674,7 @@
             <xdr:cNvPr id="43" name="직사각형 42">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00002B000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00002B000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -37450,7 +37825,7 @@
           <xdr:cNvPr id="35" name="그림 34">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000023000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000023000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -37484,7 +37859,7 @@
           <xdr:cNvPr id="36" name="직사각형 35">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000024000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000024000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -37629,7 +38004,7 @@
           <xdr:cNvPr id="37" name="직사각형 36">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000025000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000025000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -37776,7 +38151,7 @@
           <xdr:cNvPr id="38" name="직사각형 37">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000026000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000026000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -37923,7 +38298,7 @@
           <xdr:cNvPr id="39" name="직사각형 38">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000027000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000027000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -38068,7 +38443,7 @@
           <xdr:cNvPr id="40" name="직사각형 39">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000028000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000028000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -38229,7 +38604,7 @@
         <xdr:cNvPr id="44" name="그룹 43">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00002C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00002C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -38248,7 +38623,7 @@
           <xdr:cNvPr id="46" name="순서도: 가산 접합 45">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00002E000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00002E000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -38395,7 +38770,7 @@
           <xdr:cNvPr id="47" name="부분 원형 46">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00002F000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00002F000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -38550,7 +38925,7 @@
           <xdr:cNvPr id="48" name="화살표: 위쪽 47">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000030000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000030000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -38689,7 +39064,7 @@
           <xdr:cNvPr id="49" name="그룹 48">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000031000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000031000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -38708,7 +39083,7 @@
             <xdr:cNvPr id="53" name="그림 52">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000035000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000035000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -38742,7 +39117,7 @@
             <xdr:cNvPr id="54" name="직선 연결선 53">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000036000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000036000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -38785,7 +39160,7 @@
           <xdr:cNvPr id="50" name="그래픽 3" descr="렌치">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000032000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000032000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -38823,7 +39198,7 @@
           <xdr:cNvPr id="51" name="곱하기 기호 50">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000033000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000033000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -38970,7 +39345,7 @@
           <xdr:cNvPr id="52" name="그래픽 76" descr="커서">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000034000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000034000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -39024,7 +39399,7 @@
         <xdr:cNvPr id="45" name="TextBox 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00002D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00002D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -39177,7 +39552,7 @@
         <xdr:cNvPr id="55" name="직사각형 54">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000037000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000037000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -39337,7 +39712,7 @@
         <xdr:cNvPr id="56" name="화살표: 오른쪽 55">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000038000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000038000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -39491,7 +39866,7 @@
         <xdr:cNvPr id="64" name="그룹 63">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000040000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000040000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -39510,7 +39885,7 @@
           <xdr:cNvPr id="65" name="그룹 64">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000041000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000041000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -39529,7 +39904,7 @@
             <xdr:cNvPr id="72" name="직사각형 71">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000048000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000048000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -39678,7 +40053,7 @@
             <xdr:cNvPr id="73" name="직사각형 72">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000049000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000049000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -39825,7 +40200,7 @@
             <xdr:cNvPr id="74" name="직사각형 73">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00004A000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00004A000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -39976,7 +40351,7 @@
           <xdr:cNvPr id="66" name="그림 65">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000042000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000042000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -40010,7 +40385,7 @@
           <xdr:cNvPr id="67" name="직사각형 66">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000043000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000043000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -40155,7 +40530,7 @@
           <xdr:cNvPr id="68" name="직사각형 67">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000044000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000044000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -40302,7 +40677,7 @@
           <xdr:cNvPr id="69" name="직사각형 68">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000045000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000045000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -40449,7 +40824,7 @@
           <xdr:cNvPr id="70" name="직사각형 69">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000046000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000046000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -40594,7 +40969,7 @@
           <xdr:cNvPr id="71" name="직사각형 70">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000047000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000047000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -40755,7 +41130,7 @@
         <xdr:cNvPr id="75" name="화살표: 오른쪽 74">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00004B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00004B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -40909,7 +41284,7 @@
         <xdr:cNvPr id="76" name="그룹 75">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00004C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00004C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -40928,7 +41303,7 @@
           <xdr:cNvPr id="77" name="그룹 76">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00004D000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00004D000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -40947,7 +41322,7 @@
             <xdr:cNvPr id="85" name="그룹 84">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000055000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000055000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -40966,7 +41341,7 @@
               <xdr:cNvPr id="91" name="직사각형 90">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00005B000000}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00005B000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -41115,7 +41490,7 @@
               <xdr:cNvPr id="92" name="직사각형 91">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00005C000000}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00005C000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -41262,7 +41637,7 @@
               <xdr:cNvPr id="93" name="직사각형 92">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00005D000000}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00005D000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -41413,7 +41788,7 @@
             <xdr:cNvPr id="86" name="직사각형 85">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000056000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000056000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -41558,7 +41933,7 @@
             <xdr:cNvPr id="87" name="직사각형 86">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000057000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000057000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -41705,7 +42080,7 @@
             <xdr:cNvPr id="88" name="직사각형 87">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000058000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000058000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -41852,7 +42227,7 @@
             <xdr:cNvPr id="89" name="직사각형 88">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000059000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000059000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -41997,7 +42372,7 @@
             <xdr:cNvPr id="90" name="직사각형 89">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00005A000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00005A000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -42143,7 +42518,7 @@
           <xdr:cNvPr id="78" name="그룹 77">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00004E000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00004E000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -42162,7 +42537,7 @@
             <xdr:cNvPr id="79" name="그림 78">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00004F000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00004F000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -42196,7 +42571,7 @@
             <xdr:cNvPr id="80" name="직사각형 79">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000050000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000050000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -42346,7 +42721,7 @@
             <xdr:cNvPr id="81" name="직사각형 80">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000051000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000051000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -42496,7 +42871,7 @@
             <xdr:cNvPr id="82" name="직사각형 81">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000052000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000052000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -42646,7 +43021,7 @@
             <xdr:cNvPr id="83" name="직사각형 82">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000053000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000053000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -42796,7 +43171,7 @@
             <xdr:cNvPr id="84" name="직사각형 83">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000054000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000054000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -42968,7 +43343,7 @@
         <xdr:cNvPr id="2" name="그룹 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -42987,7 +43362,7 @@
           <xdr:cNvPr id="36" name="그룹 35">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000024000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000024000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -43006,7 +43381,7 @@
             <xdr:cNvPr id="43" name="직사각형 42">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00002B000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00002B000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -43155,7 +43530,7 @@
             <xdr:cNvPr id="44" name="직사각형 43">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00002C000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00002C000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -43302,7 +43677,7 @@
             <xdr:cNvPr id="45" name="직사각형 44">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00002D000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00002D000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -43453,7 +43828,7 @@
           <xdr:cNvPr id="37" name="그림 36">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000025000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000025000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -43487,7 +43862,7 @@
           <xdr:cNvPr id="38" name="직사각형 37">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000026000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000026000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -43632,7 +44007,7 @@
           <xdr:cNvPr id="39" name="직사각형 38">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000027000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000027000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -43779,7 +44154,7 @@
           <xdr:cNvPr id="40" name="직사각형 39">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000028000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000028000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -43926,7 +44301,7 @@
           <xdr:cNvPr id="41" name="직사각형 40">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000029000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000029000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -44071,7 +44446,7 @@
           <xdr:cNvPr id="42" name="직사각형 41">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00002A000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00002A000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -44232,7 +44607,7 @@
         <xdr:cNvPr id="3" name="그룹 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -44251,7 +44626,7 @@
           <xdr:cNvPr id="27" name="그룹 26">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00001B000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00001B000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -44270,7 +44645,7 @@
             <xdr:cNvPr id="33" name="직사각형 32">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000021000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000021000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -44419,7 +44794,7 @@
             <xdr:cNvPr id="34" name="직사각형 33">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000022000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000022000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -44566,7 +44941,7 @@
             <xdr:cNvPr id="35" name="직사각형 34">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000023000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000023000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -44717,7 +45092,7 @@
           <xdr:cNvPr id="28" name="직사각형 27">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00001C000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00001C000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -44862,7 +45237,7 @@
           <xdr:cNvPr id="29" name="직사각형 28">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00001D000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00001D000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -45007,7 +45382,7 @@
           <xdr:cNvPr id="30" name="직사각형 29">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00001E000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00001E000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -45152,7 +45527,7 @@
           <xdr:cNvPr id="31" name="직사각형 30">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00001F000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00001F000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -45297,7 +45672,7 @@
           <xdr:cNvPr id="32" name="직사각형 31">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000020000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000020000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -45458,7 +45833,7 @@
         <xdr:cNvPr id="4" name="그룹 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -45477,7 +45852,7 @@
           <xdr:cNvPr id="18" name="순서도: 가산 접합 17">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000012000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000012000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -45624,7 +45999,7 @@
           <xdr:cNvPr id="19" name="부분 원형 18">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000013000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000013000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -45779,7 +46154,7 @@
           <xdr:cNvPr id="20" name="화살표: 위쪽 19">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000014000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000014000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -45918,7 +46293,7 @@
           <xdr:cNvPr id="21" name="그룹 20">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000015000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000015000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -45937,7 +46312,7 @@
             <xdr:cNvPr id="25" name="그림 24">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000019000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000019000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -45971,7 +46346,7 @@
             <xdr:cNvPr id="26" name="직선 연결선 25">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00001A000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00001A000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -46014,7 +46389,7 @@
           <xdr:cNvPr id="22" name="그래픽 3" descr="렌치">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000016000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000016000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -46052,7 +46427,7 @@
           <xdr:cNvPr id="23" name="곱하기 기호 22">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000017000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000017000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -46199,7 +46574,7 @@
           <xdr:cNvPr id="24" name="그래픽 76" descr="커서">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000018000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000018000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -46253,7 +46628,7 @@
         <xdr:cNvPr id="5" name="TextBox 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -46406,7 +46781,7 @@
         <xdr:cNvPr id="6" name="그림 5" descr="옅은, 램프이(가) 표시된 사진&#10;&#10;자동 생성된 설명">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -46456,7 +46831,7 @@
         <xdr:cNvPr id="7" name="그림 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -46505,7 +46880,7 @@
         <xdr:cNvPr id="8" name="그림 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -46561,7 +46936,7 @@
         <xdr:cNvPr id="9" name="화살표: 오른쪽 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -46715,7 +47090,7 @@
         <xdr:cNvPr id="10" name="화살표: 오른쪽 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -46869,7 +47244,7 @@
         <xdr:cNvPr id="11" name="화살표: 오른쪽 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -47023,7 +47398,7 @@
         <xdr:cNvPr id="12" name="직사각형 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -47183,7 +47558,7 @@
         <xdr:cNvPr id="13" name="내용 개체 틀 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -47363,7 +47738,7 @@
         <xdr:cNvPr id="14" name="내용 개체 틀 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -47522,7 +47897,7 @@
         <xdr:cNvPr id="15" name="내용 개체 틀 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -47673,7 +48048,7 @@
         <xdr:cNvPr id="16" name="직사각형 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -47833,7 +48208,7 @@
         <xdr:cNvPr id="17" name="TextBox 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000011000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -50512,7 +50887,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD60417C-F1A4-440B-A0A0-69A4B84A2D78}">
   <dimension ref="A3:N12"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -50792,72 +51167,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A13" s="26"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
+      <c r="A13" s="27"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A14" s="26"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A16" s="14"/>
@@ -50902,24 +51277,24 @@
       <c r="D28" s="19"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A29" s="27" t="s">
+      <c r="A29" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A30" s="28"/>
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
+      <c r="A30" s="29"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A31" s="28"/>
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
+      <c r="A31" s="29"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A34" s="8" t="s">
@@ -51056,22 +51431,22 @@
       <c r="D53" s="16"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A55" s="24"/>
-      <c r="B55" s="24"/>
-      <c r="C55" s="24"/>
-      <c r="D55" s="24"/>
+      <c r="A55" s="25"/>
+      <c r="B55" s="25"/>
+      <c r="C55" s="25"/>
+      <c r="D55" s="25"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A56" s="24"/>
-      <c r="B56" s="24"/>
-      <c r="C56" s="24"/>
-      <c r="D56" s="24"/>
+      <c r="A56" s="25"/>
+      <c r="B56" s="25"/>
+      <c r="C56" s="25"/>
+      <c r="D56" s="25"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A57" s="24"/>
-      <c r="B57" s="24"/>
-      <c r="C57" s="24"/>
-      <c r="D57" s="24"/>
+      <c r="A57" s="25"/>
+      <c r="B57" s="25"/>
+      <c r="C57" s="25"/>
+      <c r="D57" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -51103,23 +51478,23 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -51135,10 +51510,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA7C9376-7F84-4077-964E-5E391732AB98}">
-  <dimension ref="E23:M25"/>
+  <dimension ref="E23:M26"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S20" sqref="S20"/>
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -51151,22 +51526,22 @@
         <v>47</v>
       </c>
       <c r="F23" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="G23" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="G23" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="H23" s="31" t="s">
+      <c r="H23" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="I23" s="32"/>
-      <c r="J23" s="32"/>
-      <c r="K23" s="32"/>
-      <c r="L23" s="32"/>
-      <c r="M23" s="33"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="33"/>
+      <c r="L23" s="33"/>
+      <c r="M23" s="34"/>
     </row>
     <row r="24" spans="5:13" x14ac:dyDescent="0.4">
-      <c r="E24" s="6">
+      <c r="E24" s="24">
         <v>1</v>
       </c>
       <c r="F24" s="23" t="s">
@@ -51175,43 +51550,58 @@
       <c r="G24" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="H24" s="34" t="s">
+      <c r="H24" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="39"/>
+      <c r="M24" s="39"/>
+    </row>
+    <row r="25" spans="5:13" x14ac:dyDescent="0.4">
+      <c r="E25" s="35">
+        <v>2</v>
+      </c>
+      <c r="F25" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="G25" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="H25" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="I24" s="34"/>
-      <c r="J24" s="34"/>
-      <c r="K24" s="34"/>
-      <c r="L24" s="34"/>
-      <c r="M24" s="34"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="39"/>
+      <c r="K25" s="39"/>
+      <c r="L25" s="39"/>
+      <c r="M25" s="39"/>
     </row>
-    <row r="25" spans="5:13" x14ac:dyDescent="0.4">
-      <c r="E25" s="6">
-        <v>2</v>
-      </c>
-      <c r="F25" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="G25" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="H25" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="I25" s="34"/>
-      <c r="J25" s="34"/>
-      <c r="K25" s="34"/>
-      <c r="L25" s="34"/>
-      <c r="M25" s="34"/>
+    <row r="26" spans="5:13" x14ac:dyDescent="0.4">
+      <c r="E26" s="35"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="39"/>
+      <c r="J26" s="39"/>
+      <c r="K26" s="39"/>
+      <c r="L26" s="39"/>
+      <c r="M26" s="39"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="6">
+    <mergeCell ref="E25:E26"/>
     <mergeCell ref="H23:M23"/>
     <mergeCell ref="H24:M24"/>
-    <mergeCell ref="H25:M25"/>
+    <mergeCell ref="H25:M26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:G26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -51235,8 +51625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6A928A1-8D8E-4284-AC0C-3A893A5DE15C}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S29" sqref="S29:S30"/>
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R26" sqref="R26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -51251,80 +51641,80 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88600E79-E5AB-4B05-88F3-1BEEFBE8FE97}">
   <dimension ref="A17:N34"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="B10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="S21" sqref="S21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="17" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A17" s="35" t="s">
+      <c r="A17" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="36"/>
-      <c r="C17" s="36"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
     </row>
     <row r="31" spans="1:14" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="25" t="s">
+      <c r="A31" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="B31" s="25"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
-      <c r="F31" s="25" t="s">
+      <c r="B31" s="26"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="F31" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="G31" s="37"/>
-      <c r="H31" s="37"/>
-      <c r="I31" s="37"/>
-      <c r="K31" s="25" t="s">
+      <c r="G31" s="38"/>
+      <c r="H31" s="38"/>
+      <c r="I31" s="38"/>
+      <c r="K31" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="L31" s="37"/>
-      <c r="M31" s="37"/>
-      <c r="N31" s="37"/>
+      <c r="L31" s="38"/>
+      <c r="M31" s="38"/>
+      <c r="N31" s="38"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A32" s="25"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="F32" s="37"/>
-      <c r="G32" s="37"/>
-      <c r="H32" s="37"/>
-      <c r="I32" s="37"/>
-      <c r="K32" s="37"/>
-      <c r="L32" s="37"/>
-      <c r="M32" s="37"/>
-      <c r="N32" s="37"/>
+      <c r="A32" s="26"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="38"/>
+      <c r="K32" s="38"/>
+      <c r="L32" s="38"/>
+      <c r="M32" s="38"/>
+      <c r="N32" s="38"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A33" s="25"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="25"/>
-      <c r="F33" s="37"/>
-      <c r="G33" s="37"/>
-      <c r="H33" s="37"/>
-      <c r="I33" s="37"/>
-      <c r="K33" s="37"/>
-      <c r="L33" s="37"/>
-      <c r="M33" s="37"/>
-      <c r="N33" s="37"/>
+      <c r="A33" s="26"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="38"/>
+      <c r="H33" s="38"/>
+      <c r="I33" s="38"/>
+      <c r="K33" s="38"/>
+      <c r="L33" s="38"/>
+      <c r="M33" s="38"/>
+      <c r="N33" s="38"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A34" s="25"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
-      <c r="F34" s="37"/>
-      <c r="G34" s="37"/>
-      <c r="H34" s="37"/>
-      <c r="I34" s="37"/>
-      <c r="K34" s="37"/>
-      <c r="L34" s="37"/>
-      <c r="M34" s="37"/>
-      <c r="N34" s="37"/>
+      <c r="A34" s="26"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="F34" s="38"/>
+      <c r="G34" s="38"/>
+      <c r="H34" s="38"/>
+      <c r="I34" s="38"/>
+      <c r="K34" s="38"/>
+      <c r="L34" s="38"/>
+      <c r="M34" s="38"/>
+      <c r="N34" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -51345,7 +51735,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>

--- a/유닛 및 건물/건물알고리즘.xlsx
+++ b/유닛 및 건물/건물알고리즘.xlsx
@@ -8,20 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Sheperd_Holidays\유닛 및 건물\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70F88EF2-D159-4A86-AAC5-3D2DA42DB434}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D995D46-AC2A-4920-9AF9-42E7B3BC8BE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3420EE1F-B79F-4D70-BE33-A8D37B33DBA4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="4" xr2:uid="{3420EE1F-B79F-4D70-BE33-A8D37B33DBA4}"/>
   </bookViews>
   <sheets>
     <sheet name="건물 목록" sheetId="1" r:id="rId1"/>
     <sheet name="건물 UI" sheetId="2" r:id="rId2"/>
     <sheet name="집 기능 &amp; 강화" sheetId="4" r:id="rId3"/>
     <sheet name="유닛 생산" sheetId="6" r:id="rId4"/>
-    <sheet name="자원생산" sheetId="7" r:id="rId5"/>
-    <sheet name="목장 강화" sheetId="11" r:id="rId6"/>
-    <sheet name="건물 업그레이드 목록" sheetId="8" r:id="rId7"/>
-    <sheet name="건물파괴" sheetId="9" r:id="rId8"/>
-    <sheet name="훈련소 강화" sheetId="10" r:id="rId9"/>
+    <sheet name="목장 강화" sheetId="11" r:id="rId5"/>
+    <sheet name="건물 업그레이드 목록" sheetId="8" r:id="rId6"/>
+    <sheet name="건물파괴" sheetId="9" r:id="rId7"/>
+    <sheet name="훈련소 강화" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -527,6 +526,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -537,7 +539,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -547,12 +552,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -22428,2920 +22427,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>378750</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>29244</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>108586</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>146315</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="29" name="그룹 28">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001D000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="5778064" y="464673"/>
-          <a:ext cx="5804065" cy="3382785"/>
-          <a:chOff x="3238500" y="1707919"/>
-          <a:chExt cx="5715000" cy="3442162"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="48" name="직사각형 47">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000030000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3238500" y="1707919"/>
-            <a:ext cx="5715000" cy="3442162"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:sysClr val="window" lastClr="FFFFFF"/>
-          </a:solidFill>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle>
-            <a:defPPr>
-              <a:defRPr lang="ko-KR"/>
-            </a:defPPr>
-            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1050"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="49" name="사각형: 둥근 모서리 48">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000031000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3324811" y="1803618"/>
-            <a:ext cx="1013019" cy="237772"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="tx2">
-              <a:lumMod val="60000"/>
-              <a:lumOff val="40000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:ln w="28575" cap="flat">
-            <a:solidFill>
-              <a:schemeClr val="tx2">
-                <a:lumMod val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:miter/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle>
-            <a:defPPr>
-              <a:defRPr lang="ko-KR"/>
-            </a:defPPr>
-            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="ko-KR" altLang="en-US" sz="1050"/>
-              <a:t>자원 </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ko-KR" sz="1050"/>
-              <a:t>/ </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ko-KR" altLang="en-US" sz="1050"/>
-              <a:t>인구</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="50" name="사각형: 둥근 모서리 49">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000032000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="8498550" y="1805524"/>
-            <a:ext cx="318668" cy="349358"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="tx2">
-              <a:lumMod val="60000"/>
-              <a:lumOff val="40000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:ln w="28575" cap="flat">
-            <a:solidFill>
-              <a:schemeClr val="tx2">
-                <a:lumMod val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:miter/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle>
-            <a:defPPr>
-              <a:defRPr lang="ko-KR"/>
-            </a:defPPr>
-            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="1"/>
-              <a:t>Menu</a:t>
-            </a:r>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="900" b="1"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="51" name="사각형: 둥근 모서리 50">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000033000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3324811" y="2087245"/>
-            <a:ext cx="735915" cy="246941"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="tx2">
-              <a:lumMod val="60000"/>
-              <a:lumOff val="40000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:ln w="28575" cap="flat">
-            <a:solidFill>
-              <a:schemeClr val="tx2">
-                <a:lumMod val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:miter/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle>
-            <a:defPPr>
-              <a:defRPr lang="ko-KR"/>
-            </a:defPPr>
-            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ko-KR" sz="1050"/>
-              <a:t>DAY - 01</a:t>
-            </a:r>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1050"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="52" name="그래픽 37" descr="어두움(작은 태양)">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000034000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4101611" y="2087245"/>
-            <a:ext cx="236220" cy="246941"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>631595</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>91903</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>574178</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>91289</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="직사각형 29">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001E000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="631595" y="4747030"/>
-          <a:ext cx="1272619" cy="442732"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="ko-KR"/>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>자원 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1000">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>+= 150</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>129241</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>540756</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>119256</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="다이아몬드 30">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001F000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="3676005"/>
-          <a:ext cx="2535811" cy="655033"/>
-        </a:xfrm>
-        <a:prstGeom prst="diamond">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="ko-KR"/>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1000">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>if( </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>대기시간 시간 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1000">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>== 0)</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>631595</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>184374</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>574178</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>183761</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="직사각형 31">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000020000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="631595" y="2844447"/>
-          <a:ext cx="1272619" cy="442732"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="ko-KR"/>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>대기 시간 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1000">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>-= 1</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>574178</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>184068</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>540756</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>13413</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="33" name="연결선: 꺾임 32">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000021000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="31" idx="3"/>
-          <a:endCxn id="32" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="1904214" y="3065813"/>
-          <a:ext cx="631597" cy="937709"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -36194"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>589051</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>132213</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>281148</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>116657</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="직사각형 33">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000022000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5909196" y="575558"/>
-          <a:ext cx="357116" cy="206117"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:srgbClr val="00B050"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="ko-KR"/>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1000">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>631594</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>101871</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>574177</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>101258</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="직사각형 34">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000023000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="631594" y="1875253"/>
-          <a:ext cx="1272619" cy="442732"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="ko-KR"/>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>대기 시간 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1000">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>= 20</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>602887</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>101564</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>574177</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>91289</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="36" name="연결선: 꺾임 35">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000024000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-          <a:stCxn id="30" idx="2"/>
-          <a:endCxn id="35" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="39487" y="3325037"/>
-          <a:ext cx="3093143" cy="636308"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector4">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -7391"/>
-            <a:gd name="adj2" fmla="val 318822"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>630716</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>18609</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>573299</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>17995</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="37" name="직사각형 36">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000025000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3290789" y="461954"/>
-          <a:ext cx="1272619" cy="442732"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="ko-KR"/>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>자원</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1000">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>573299</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>13599</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>589051</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>18302</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="38" name="직선 화살표 연결선 37">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000026000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="37" idx="3"/>
-          <a:endCxn id="34" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="4563408" y="678617"/>
-          <a:ext cx="1345788" cy="4703"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr val="00B050"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>222416</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>231935</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>12992</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="39" name="직사각형 38">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000027000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4877543" y="443345"/>
-          <a:ext cx="674537" cy="234665"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="12700">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="ko-KR"/>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>출력</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1000">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>399803</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>90443</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>142602</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>141042</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name="직사각형 39">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000028000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3724894" y="533788"/>
-          <a:ext cx="407817" cy="272272"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:srgbClr val="00B050"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="ko-KR"/>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1000">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>196173</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>177133</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>508960</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>211930</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="41" name="직사각형 40">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000029000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="861191" y="4832260"/>
-          <a:ext cx="312787" cy="256470"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:srgbClr val="00B050"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="ko-KR"/>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1000">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>352567</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>141042</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>603712</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>211930</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="42" name="연결선: 꺾임 41">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00002A000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="41" idx="2"/>
-          <a:endCxn id="40" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="331859" y="1491786"/>
-          <a:ext cx="4282670" cy="2911218"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -17308"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="00B050"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>626739</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>215704</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>569322</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>215090</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="43" name="직사각형 42">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00002B000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="626739" y="880722"/>
-          <a:ext cx="1272619" cy="442732"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="ko-KR"/>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>생산 건물 건설</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1000">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>598031</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>215090</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>602886</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>101871</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="44" name="직선 화살표 연결선 43">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00002C000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="43" idx="2"/>
-          <a:endCxn id="35" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1263049" y="1323454"/>
-          <a:ext cx="4855" cy="551799"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>602886</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>101258</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>602887</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>184374</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="45" name="직선 화살표 연결선 44">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00002D000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-          <a:stCxn id="35" idx="2"/>
-          <a:endCxn id="32" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1267904" y="2317985"/>
-          <a:ext cx="1" cy="526462"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>602887</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>183761</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>602888</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>129241</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="46" name="직선 화살표 연결선 45">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00002E000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-          <a:stCxn id="32" idx="2"/>
-          <a:endCxn id="31" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1267905" y="3287179"/>
-          <a:ext cx="1" cy="388826"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>602887</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>119256</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>602888</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>91903</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="47" name="직선 화살표 연결선 46">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00002F000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-          <a:stCxn id="31" idx="2"/>
-          <a:endCxn id="30" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="1267905" y="4331038"/>
-          <a:ext cx="1" cy="415992"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>129540</xdr:colOff>
       <xdr:row>0</xdr:row>
@@ -33093,7 +30178,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -43323,7 +40408,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -48341,7 +45426,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -50887,7 +47972,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD60417C-F1A4-440B-A0A0-69A4B84A2D78}">
   <dimension ref="A3:N12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -51155,7 +48240,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11615D36-2F01-44E7-B2B4-D86C908D1C4C}">
   <dimension ref="A1:K57"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -51466,7 +48551,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89EB9FA6-FD79-46EB-A983-89A2C0325109}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
@@ -51512,8 +48597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA7C9376-7F84-4077-964E-5E391732AB98}">
   <dimension ref="E23:M26"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q24" sqref="Q24"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -51531,14 +48616,14 @@
       <c r="G23" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="H23" s="32" t="s">
+      <c r="H23" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="I23" s="33"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="33"/>
-      <c r="L23" s="33"/>
-      <c r="M23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="34"/>
+      <c r="L23" s="34"/>
+      <c r="M23" s="35"/>
     </row>
     <row r="24" spans="5:13" x14ac:dyDescent="0.4">
       <c r="E24" s="24">
@@ -51550,44 +48635,44 @@
       <c r="G24" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="H24" s="39" t="s">
+      <c r="H24" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="I24" s="39"/>
-      <c r="J24" s="39"/>
-      <c r="K24" s="39"/>
-      <c r="L24" s="39"/>
-      <c r="M24" s="39"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="36"/>
+      <c r="M24" s="36"/>
     </row>
     <row r="25" spans="5:13" x14ac:dyDescent="0.4">
-      <c r="E25" s="35">
+      <c r="E25" s="32">
         <v>2</v>
       </c>
-      <c r="F25" s="40" t="s">
+      <c r="F25" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="G25" s="35" t="s">
+      <c r="G25" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="H25" s="40" t="s">
+      <c r="H25" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="I25" s="39"/>
-      <c r="J25" s="39"/>
-      <c r="K25" s="39"/>
-      <c r="L25" s="39"/>
-      <c r="M25" s="39"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="36"/>
+      <c r="L25" s="36"/>
+      <c r="M25" s="36"/>
     </row>
     <row r="26" spans="5:13" x14ac:dyDescent="0.4">
-      <c r="E26" s="35"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="39"/>
-      <c r="I26" s="39"/>
-      <c r="J26" s="39"/>
-      <c r="K26" s="39"/>
-      <c r="L26" s="39"/>
-      <c r="M26" s="39"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="36"/>
+      <c r="K26" s="36"/>
+      <c r="L26" s="36"/>
+      <c r="M26" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -51606,11 +48691,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F097A671-5A98-4A5B-8BE6-667F61CA9FB0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6A928A1-8D8E-4284-AC0C-3A893A5DE15C}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T26" sqref="T26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -51622,37 +48707,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6A928A1-8D8E-4284-AC0C-3A893A5DE15C}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R26" sqref="R26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88600E79-E5AB-4B05-88F3-1BEEFBE8FE97}">
   <dimension ref="A17:N34"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="B10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S21" sqref="S21"/>
+      <selection activeCell="N37" sqref="N37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="17" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A17" s="36" t="s">
+      <c r="A17" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
     </row>
     <row r="31" spans="1:14" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="26" t="s">
@@ -51664,57 +48733,57 @@
       <c r="F31" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="G31" s="38"/>
-      <c r="H31" s="38"/>
-      <c r="I31" s="38"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="40"/>
       <c r="K31" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="L31" s="38"/>
-      <c r="M31" s="38"/>
-      <c r="N31" s="38"/>
+      <c r="L31" s="40"/>
+      <c r="M31" s="40"/>
+      <c r="N31" s="40"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A32" s="26"/>
       <c r="B32" s="26"/>
       <c r="C32" s="26"/>
       <c r="D32" s="26"/>
-      <c r="F32" s="38"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="38"/>
-      <c r="I32" s="38"/>
-      <c r="K32" s="38"/>
-      <c r="L32" s="38"/>
-      <c r="M32" s="38"/>
-      <c r="N32" s="38"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="40"/>
+      <c r="K32" s="40"/>
+      <c r="L32" s="40"/>
+      <c r="M32" s="40"/>
+      <c r="N32" s="40"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A33" s="26"/>
       <c r="B33" s="26"/>
       <c r="C33" s="26"/>
       <c r="D33" s="26"/>
-      <c r="F33" s="38"/>
-      <c r="G33" s="38"/>
-      <c r="H33" s="38"/>
-      <c r="I33" s="38"/>
-      <c r="K33" s="38"/>
-      <c r="L33" s="38"/>
-      <c r="M33" s="38"/>
-      <c r="N33" s="38"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="40"/>
+      <c r="H33" s="40"/>
+      <c r="I33" s="40"/>
+      <c r="K33" s="40"/>
+      <c r="L33" s="40"/>
+      <c r="M33" s="40"/>
+      <c r="N33" s="40"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A34" s="26"/>
       <c r="B34" s="26"/>
       <c r="C34" s="26"/>
       <c r="D34" s="26"/>
-      <c r="F34" s="38"/>
-      <c r="G34" s="38"/>
-      <c r="H34" s="38"/>
-      <c r="I34" s="38"/>
-      <c r="K34" s="38"/>
-      <c r="L34" s="38"/>
-      <c r="M34" s="38"/>
-      <c r="N34" s="38"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="40"/>
+      <c r="H34" s="40"/>
+      <c r="I34" s="40"/>
+      <c r="K34" s="40"/>
+      <c r="L34" s="40"/>
+      <c r="M34" s="40"/>
+      <c r="N34" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -51730,7 +48799,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{597E8A56-9455-433F-90BE-B9F14F808AB4}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -51746,7 +48815,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46264244-2EC8-4F22-8440-BBBF1FF7593D}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/유닛 및 건물/건물알고리즘.xlsx
+++ b/유닛 및 건물/건물알고리즘.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Sheperd_Holidays\유닛 및 건물\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D995D46-AC2A-4920-9AF9-42E7B3BC8BE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0BBA4F1-43F7-455D-B116-B297E2723267}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="4" xr2:uid="{3420EE1F-B79F-4D70-BE33-A8D37B33DBA4}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="19296" windowHeight="10944" xr2:uid="{3420EE1F-B79F-4D70-BE33-A8D37B33DBA4}"/>
   </bookViews>
   <sheets>
     <sheet name="건물 목록" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="56">
   <si>
     <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -99,10 +99,6 @@
   </si>
   <si>
     <t>훈련소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>활터</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -22428,15 +22424,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>129540</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>292385</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>9598</xdr:rowOff>
+      <xdr:colOff>162845</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>135872</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -22451,7 +22447,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="129540" y="167640"/>
+          <a:off x="0" y="5083628"/>
           <a:ext cx="9611645" cy="4196244"/>
           <a:chOff x="855280" y="1354051"/>
           <a:chExt cx="9550685" cy="4261558"/>
@@ -25741,15 +25737,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>121920</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>205740</xdr:rowOff>
+      <xdr:colOff>132805</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>194854</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>284765</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>47698</xdr:rowOff>
+      <xdr:colOff>295650</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>36812</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -25764,7 +25760,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="121920" y="4777740"/>
+          <a:off x="132805" y="9991997"/>
           <a:ext cx="9611645" cy="4196244"/>
           <a:chOff x="855280" y="1354051"/>
           <a:chExt cx="9550685" cy="4261558"/>
@@ -29085,16 +29081,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>100148</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>75110</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>546462</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>129539</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>539733</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>139930</xdr:rowOff>
+      <xdr:colOff>311132</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>194358</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -29109,7 +29105,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10898777" y="728253"/>
+          <a:off x="10670176" y="5790110"/>
           <a:ext cx="5838899" cy="3330534"/>
           <a:chOff x="3238500" y="1707919"/>
           <a:chExt cx="5715000" cy="3442162"/>
@@ -29786,16 +29782,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>654161</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>79308</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>11905</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>111965</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>312709</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>34797</xdr:rowOff>
+      <xdr:colOff>73224</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>13026</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -29814,13 +29810,13 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="4664034" y="989778"/>
-          <a:ext cx="6486918" cy="6407691"/>
+          <a:off x="4478977" y="6247579"/>
+          <a:ext cx="6650204" cy="6135548"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector4">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -4027"/>
-            <a:gd name="adj2" fmla="val 87406"/>
+            <a:gd name="adj1" fmla="val -28318"/>
+            <a:gd name="adj2" fmla="val 88000"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln w="12700">
@@ -29850,15 +29846,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>312710</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>195943</xdr:rowOff>
+      <xdr:colOff>73224</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>10886</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>4808</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>180387</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>440236</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>213044</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -29873,7 +29869,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11111339" y="849086"/>
+          <a:off x="10871853" y="5889172"/>
           <a:ext cx="367012" cy="202158"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -30014,15 +30010,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>497768</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:colOff>530425</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>195944</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>135641</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>34797</xdr:rowOff>
+      <xdr:colOff>168298</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>13026</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -30037,7 +30033,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4547254" y="7184572"/>
+          <a:off x="4579911" y="12387944"/>
           <a:ext cx="312787" cy="252511"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -47972,8 +47968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD60417C-F1A4-440B-A0A0-69A4B84A2D78}">
   <dimension ref="A3:N12"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -47996,7 +47992,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>2</v>
@@ -48031,13 +48027,13 @@
         <v>500</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -48065,7 +48061,7 @@
         <v>10</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -48092,7 +48088,7 @@
         <v>10</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
@@ -48119,7 +48115,7 @@
         <v>10</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
@@ -48146,19 +48142,19 @@
         <v>10</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="89.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="6">
         <v>150</v>
@@ -48170,10 +48166,10 @@
         <v>150</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
@@ -48185,7 +48181,7 @@
     </row>
     <row r="10" spans="1:14" ht="94.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" s="6">
         <v>150</v>
@@ -48200,7 +48196,7 @@
         <v>14</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -48301,7 +48297,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12" s="26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B12" s="27"/>
       <c r="C12" s="27"/>
@@ -48363,7 +48359,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A29" s="28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B29" s="29"/>
       <c r="C29" s="29"/>
@@ -48383,16 +48379,16 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A34" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B34" s="15" t="s">
+      <c r="C34" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C34" s="15" t="s">
+      <c r="D34" s="15" t="s">
         <v>28</v>
-      </c>
-      <c r="D34" s="15" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.4">
@@ -48400,13 +48396,13 @@
         <v>1</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.4">
@@ -48414,13 +48410,13 @@
         <v>2</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.4">
@@ -48428,13 +48424,13 @@
         <v>3</v>
       </c>
       <c r="B37" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C37" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="D37" s="9" t="s">
         <v>33</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.4">
@@ -48442,13 +48438,13 @@
         <v>4</v>
       </c>
       <c r="B38" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C38" s="21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D38" s="22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.4">
@@ -48559,12 +48555,12 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B2" s="30"/>
       <c r="C2" s="30"/>
@@ -48608,16 +48604,16 @@
   <sheetData>
     <row r="23" spans="5:13" x14ac:dyDescent="0.4">
       <c r="E23" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F23" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="G23" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="G23" s="15" t="s">
-        <v>53</v>
-      </c>
       <c r="H23" s="33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I23" s="34"/>
       <c r="J23" s="34"/>
@@ -48630,13 +48626,13 @@
         <v>1</v>
       </c>
       <c r="F24" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="G24" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="G24" s="23" t="s">
-        <v>50</v>
-      </c>
       <c r="H24" s="36" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I24" s="36"/>
       <c r="J24" s="36"/>
@@ -48649,13 +48645,13 @@
         <v>2</v>
       </c>
       <c r="F25" s="37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G25" s="32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H25" s="37" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I25" s="36"/>
       <c r="J25" s="36"/>
@@ -48694,8 +48690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6A928A1-8D8E-4284-AC0C-3A893A5DE15C}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T26" sqref="T26"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q46" sqref="Q46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -48718,26 +48714,26 @@
   <sheetData>
     <row r="17" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A17" s="38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B17" s="39"/>
       <c r="C17" s="39"/>
     </row>
     <row r="31" spans="1:14" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B31" s="26"/>
       <c r="C31" s="26"/>
       <c r="D31" s="26"/>
       <c r="F31" s="26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G31" s="40"/>
       <c r="H31" s="40"/>
       <c r="I31" s="40"/>
       <c r="K31" s="26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L31" s="40"/>
       <c r="M31" s="40"/>

--- a/유닛 및 건물/건물알고리즘.xlsx
+++ b/유닛 및 건물/건물알고리즘.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Sheperd_Holidays\유닛 및 건물\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F958915-A7F0-4175-9F16-F84607B7BC8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD76320C-EF10-4D33-A68B-529EE6092221}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{3420EE1F-B79F-4D70-BE33-A8D37B33DBA4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3420EE1F-B79F-4D70-BE33-A8D37B33DBA4}"/>
   </bookViews>
   <sheets>
     <sheet name="건물 목록" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="59">
   <si>
     <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -226,40 +226,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>설명</t>
-  </si>
-  <si>
-    <t>생산시간</t>
-  </si>
-  <si>
-    <t>텍스트</t>
-  </si>
-  <si>
-    <t>이미지</t>
-  </si>
-  <si>
-    <t>UI이름</t>
-  </si>
-  <si>
-    <t>UI종류</t>
-  </si>
-  <si>
-    <t>현재 훈련 중인 유닛의 생산시간을 출력합니다.</t>
-  </si>
-  <si>
-    <t>생산 큐에 삽입된 유닛 수에 따라 사각형을 출력합니다.
-생산이 진행중인 유닛은 다른형태의 테두리로 출력됩니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유닛 
-생산 큐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>목장(강화)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -291,6 +257,37 @@
   <si>
     <t>먼저 수리 버튼이 출력되고 나머지 버튼이 뒤에서 곡선 
 형태를 그리며 출력됩니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유닛 생산시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>텍스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유닛 대기열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유닛이 생성될 때 까지 남은 시간입니다. 
+0초가 되면 유닛이 생성됩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유닛의 대기열 입니다.
+맨 아래쪽에서부터 채워지며 최대 칸은 5칸입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대기열 이미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대기열 이미지는 원형대기열에 각 유닛의 무기가 출력됩니다.
+(예 : 투창병은 대기열에 투척용 창, 기사는 검이 출력됩니다.)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -357,7 +354,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -412,43 +409,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -464,7 +424,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -525,12 +485,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -549,6 +503,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -564,29 +530,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -597,26 +554,23 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7885,7 +7839,7 @@
         <xdr:cNvPr id="65" name="그룹 64">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4558E5CC-1F92-4B57-82DA-56B55880D57F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000041000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7904,7 +7858,7 @@
           <xdr:cNvPr id="66" name="그림 65">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13B735A2-7B19-40B5-8573-7B1B8147F079}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000042000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -7939,7 +7893,7 @@
           <xdr:cNvPr id="67" name="원호 66">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72866975-0A24-4824-88F8-365ACCC04A17}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000043000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -8084,7 +8038,7 @@
           <xdr:cNvPr id="68" name="직사각형 67">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EA5DD47-D03E-4EDA-B70A-9EA326000739}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000044000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -8231,7 +8185,7 @@
           <xdr:cNvPr id="70" name="그룹 69">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3062A1D9-F0BC-41D8-BF71-99021D9D291C}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000046000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -8250,7 +8204,7 @@
             <xdr:cNvPr id="83" name="타원 82">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C685BF4-F5A3-4168-9C73-32F7EE27B4AE}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000053000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8397,7 +8351,7 @@
             <xdr:cNvPr id="84" name="그래픽 3" descr="렌치">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000B4000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000054000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8436,7 +8390,7 @@
           <xdr:cNvPr id="71" name="그룹 70">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{811B27F0-592B-464E-9FEF-8D40E70FF8FC}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000047000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -8455,7 +8409,7 @@
             <xdr:cNvPr id="81" name="타원 80">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7945F720-0BB7-4BDA-8309-97FB732BC169}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000051000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8602,7 +8556,7 @@
             <xdr:cNvPr id="82" name="그림 81">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000B6000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000052000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8637,7 +8591,7 @@
           <xdr:cNvPr id="78" name="그룹 77">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{558A459C-0B3C-4294-86E8-1CDA4A9DCC31}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004E000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -8656,7 +8610,7 @@
             <xdr:cNvPr id="79" name="타원 78">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E01164C-859A-4A3B-B383-8F0CEBD01761}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004F000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8803,7 +8757,7 @@
             <xdr:cNvPr id="80" name="화살표: 위쪽 79">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000B2000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000050000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8959,7 +8913,7 @@
         <xdr:cNvPr id="85" name="그룹 84">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D5AE298-32D2-4B10-9A45-F8D37EB77655}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000055000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8978,7 +8932,7 @@
           <xdr:cNvPr id="86" name="그림 85">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A90C2A78-8048-4986-AC66-F75EE9C76DC5}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000056000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9013,7 +8967,7 @@
           <xdr:cNvPr id="87" name="원호 86">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFAF404B-F7B8-455B-B9D2-A9825BB36E6A}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000057000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9158,7 +9112,7 @@
           <xdr:cNvPr id="88" name="직사각형 87">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{929C2BA4-85FA-45A7-94C8-BF40765C8783}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000058000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9305,7 +9259,7 @@
           <xdr:cNvPr id="89" name="그룹 88">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CC49735-29AD-48A1-961B-2AAD7E395B36}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000059000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9324,7 +9278,7 @@
             <xdr:cNvPr id="105" name="타원 104">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3834F058-AA4A-4291-A9EB-74DA5D67442F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000069000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9471,7 +9425,7 @@
             <xdr:cNvPr id="106" name="그래픽 3" descr="렌치">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B7FBBEA-BD1C-44F2-9CEF-19F186FE87C2}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00006A000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9510,7 +9464,7 @@
           <xdr:cNvPr id="90" name="그룹 89">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0562F2B-C9F8-4ACC-A7B9-2A7EB4E7A571}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00005A000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9529,7 +9483,7 @@
             <xdr:cNvPr id="98" name="타원 97">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84EC11EB-934F-43BD-ACC5-D85981AEA304}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000062000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9676,7 +9630,7 @@
             <xdr:cNvPr id="102" name="그림 101">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86689FE8-BED9-4492-A68C-75158FA49187}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000066000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9711,7 +9665,7 @@
           <xdr:cNvPr id="91" name="그룹 90">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2021DAF5-2180-49D3-AFA0-4B8C84325791}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00005B000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9730,7 +9684,7 @@
             <xdr:cNvPr id="92" name="타원 91">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1DC4169-F9E5-4439-B246-6D9CB9A61DFB}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00005C000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9880,7 +9834,7 @@
             <xdr:cNvPr id="93" name="화살표: 위쪽 92">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39AEDCD5-9BE9-4874-AB78-F428613177DA}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00005D000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10036,7 +9990,7 @@
         <xdr:cNvPr id="108" name="그래픽 76" descr="커서">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000D4000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00006C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10089,7 +10043,7 @@
         <xdr:cNvPr id="124" name="그래픽 76" descr="커서">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{181EC05B-AFBD-447A-B40F-6A3E544DA5F5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00007C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10142,7 +10096,7 @@
         <xdr:cNvPr id="2" name="타원 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F59D0A8-263D-4D3F-AE03-3D1473030B15}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10208,7 +10162,7 @@
         <xdr:cNvPr id="125" name="타원 124">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A857275E-A817-4D63-BD9F-49704421251A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00007D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10274,7 +10228,7 @@
         <xdr:cNvPr id="126" name="타원 125">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A63BB80B-8FC3-41A2-8AFA-4A5DCD855C86}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00007E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10340,7 +10294,7 @@
         <xdr:cNvPr id="4" name="직선 연결선 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EABD4EF0-BC4A-4065-BC16-423AF8664EED}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10395,7 +10349,7 @@
         <xdr:cNvPr id="127" name="타원 126">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2B763A0-D27D-4712-9F61-66FB9D60D8CF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00007F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10475,7 +10429,7 @@
         <xdr:cNvPr id="128" name="직선 연결선 127">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4621658-4D9A-40F6-A7BA-B4A6524A3990}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000080000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10530,7 +10484,7 @@
         <xdr:cNvPr id="129" name="타원 128">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3038DDFF-C6AD-44E4-B7D0-DE49DFA947C0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000081000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10610,7 +10564,7 @@
         <xdr:cNvPr id="130" name="직선 연결선 129">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DABB5757-0466-4A61-A68E-A25D51078957}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000082000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10665,7 +10619,7 @@
         <xdr:cNvPr id="131" name="타원 130">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28385586-FD87-4EFC-8782-E89535915156}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000083000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10745,7 +10699,7 @@
         <xdr:cNvPr id="132" name="그룹 131">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4558E5CC-1F92-4B57-82DA-56B55880D57F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000084000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10764,7 +10718,7 @@
           <xdr:cNvPr id="133" name="그림 132">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13B735A2-7B19-40B5-8573-7B1B8147F079}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000085000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -10799,7 +10753,7 @@
           <xdr:cNvPr id="134" name="원호 133">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72866975-0A24-4824-88F8-365ACCC04A17}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000086000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -10944,7 +10898,7 @@
           <xdr:cNvPr id="135" name="직사각형 134">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EA5DD47-D03E-4EDA-B70A-9EA326000739}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000087000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -11091,7 +11045,7 @@
           <xdr:cNvPr id="136" name="그룹 135">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3062A1D9-F0BC-41D8-BF71-99021D9D291C}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000088000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -11110,7 +11064,7 @@
             <xdr:cNvPr id="143" name="타원 142">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C685BF4-F5A3-4168-9C73-32F7EE27B4AE}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00008F000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11257,7 +11211,7 @@
             <xdr:cNvPr id="144" name="그래픽 3" descr="렌치">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000B4000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000090000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11296,7 +11250,7 @@
           <xdr:cNvPr id="137" name="그룹 136">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{811B27F0-592B-464E-9FEF-8D40E70FF8FC}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000089000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -11315,7 +11269,7 @@
             <xdr:cNvPr id="141" name="타원 140">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7945F720-0BB7-4BDA-8309-97FB732BC169}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00008D000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11462,7 +11416,7 @@
             <xdr:cNvPr id="142" name="그림 141">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000B6000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00008E000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11497,7 +11451,7 @@
           <xdr:cNvPr id="138" name="그룹 137">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{558A459C-0B3C-4294-86E8-1CDA4A9DCC31}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00008A000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -11516,7 +11470,7 @@
             <xdr:cNvPr id="139" name="타원 138">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E01164C-859A-4A3B-B383-8F0CEBD01761}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00008B000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11663,7 +11617,7 @@
             <xdr:cNvPr id="140" name="화살표: 위쪽 139">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000B2000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00008C000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11819,7 +11773,7 @@
         <xdr:cNvPr id="145" name="그래픽 76" descr="커서">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A80313A-2375-4530-963A-C42A89B22B9F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000091000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11872,7 +11826,7 @@
         <xdr:cNvPr id="147" name="그림 146">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54E92659-160C-4276-AC2A-158B1C7AD4C6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000093000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11922,7 +11876,7 @@
         <xdr:cNvPr id="14" name="화살표: 오른쪽 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7876EE78-7375-4ACD-B52C-596A147731A1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11982,7 +11936,7 @@
         <xdr:cNvPr id="159" name="그래픽 76" descr="커서">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64FD5BB0-E4DC-4A05-BF4A-DC59799E7A7A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00009F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12035,7 +11989,7 @@
         <xdr:cNvPr id="160" name="그룹 159">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9735BCA-A9EE-49D0-9310-7DFF267A5E9C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000A0000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12054,7 +12008,7 @@
           <xdr:cNvPr id="161" name="타원 160">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{363A08D4-0BF0-42DA-B5B4-BD41EE36DB67}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000A1000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -12201,7 +12155,7 @@
           <xdr:cNvPr id="162" name="그래픽 3" descr="렌치">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4A10083-141A-441A-A9B6-04CE56131AD8}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000A2000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -12255,7 +12209,7 @@
         <xdr:cNvPr id="163" name="그룹 162">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED90AFCD-ABD4-42C0-A8CA-7CA706522EE4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000A3000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12274,7 +12228,7 @@
           <xdr:cNvPr id="164" name="그룹 163">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14DD365D-8835-4A0E-9954-7019220020F5}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000A4000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -12293,7 +12247,7 @@
             <xdr:cNvPr id="171" name="타원 170">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFB96C24-BEA3-421B-AA16-5373E04F65C4}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000AB000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -12440,7 +12394,7 @@
             <xdr:cNvPr id="172" name="그림 171">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63B8F98F-4817-421C-8F5D-849B56515849}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000AC000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -12475,7 +12429,7 @@
           <xdr:cNvPr id="165" name="그룹 164">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77D43766-CC71-44BC-8E37-BBC44BAE82E0}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000A5000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -12494,7 +12448,7 @@
             <xdr:cNvPr id="169" name="타원 168">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C11B45E-8450-48F4-8807-49B568BEFFE8}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000A9000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -12641,7 +12595,7 @@
             <xdr:cNvPr id="170" name="화살표: 위쪽 169">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9061961-8DD0-4A17-9C4A-45603B1AA459}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000AA000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -12781,7 +12735,7 @@
           <xdr:cNvPr id="166" name="그룹 165">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12DD6445-4D35-4E2B-9997-C477E6371F79}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000A6000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -12800,7 +12754,7 @@
             <xdr:cNvPr id="167" name="타원 166">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A26DB6B-1022-44BA-BD86-BEF689B17205}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000A7000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -12947,7 +12901,7 @@
             <xdr:cNvPr id="168" name="그래픽 3" descr="렌치">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24438C6A-4635-4F64-9306-F987B37F056D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000A8000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -13002,7 +12956,7 @@
         <xdr:cNvPr id="173" name="그룹 172">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16060F82-2191-4D21-9A36-9A7A00D0FEEA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000AD000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13021,7 +12975,7 @@
           <xdr:cNvPr id="174" name="그룹 173">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1ECAA5B4-F29F-41D1-B8DD-5FAF43EDFA7D}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000AE000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -13040,7 +12994,7 @@
             <xdr:cNvPr id="193" name="타원 192">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F214078B-363B-4498-8921-5637C8D7E408}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000C1000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -13187,7 +13141,7 @@
             <xdr:cNvPr id="195" name="그래픽 3" descr="렌치">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6435D37C-06CD-40AE-B348-C90C09C0B788}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000C3000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -13226,7 +13180,7 @@
           <xdr:cNvPr id="176" name="그룹 175">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EC4E267-93A7-49A8-883E-E55D11C9DEF0}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000B0000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -13245,7 +13199,7 @@
             <xdr:cNvPr id="186" name="타원 185">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A4C318F-B014-453C-8E7B-C0EBDEDA7D85}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000BA000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -13392,7 +13346,7 @@
             <xdr:cNvPr id="191" name="그림 190">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43E4A68A-6A72-445F-BF89-1B5DA7DA4D5B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000BF000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -13427,7 +13381,7 @@
           <xdr:cNvPr id="179" name="그룹 178">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D792E9BC-D4CE-4239-A592-C02233DFD284}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000B3000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -13446,7 +13400,7 @@
             <xdr:cNvPr id="184" name="타원 183">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CAFA4DE-28B9-4A58-8CE1-4DB3DBAFA17E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000B8000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -13593,7 +13547,7 @@
             <xdr:cNvPr id="185" name="화살표: 위쪽 184">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B8186B1-DC32-49CA-90BF-788661653756}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000B9000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -13749,7 +13703,7 @@
         <xdr:cNvPr id="196" name="그룹 195">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4558E5CC-1F92-4B57-82DA-56B55880D57F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000C4000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13768,7 +13722,7 @@
           <xdr:cNvPr id="199" name="그룹 198">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3062A1D9-F0BC-41D8-BF71-99021D9D291C}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000C7000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -13787,7 +13741,7 @@
             <xdr:cNvPr id="219" name="타원 218">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C685BF4-F5A3-4168-9C73-32F7EE27B4AE}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000DB000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -13934,7 +13888,7 @@
             <xdr:cNvPr id="220" name="그래픽 3" descr="렌치">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000B4000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000DC000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -13973,7 +13927,7 @@
           <xdr:cNvPr id="207" name="그룹 206">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{811B27F0-592B-464E-9FEF-8D40E70FF8FC}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000CF000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -13992,7 +13946,7 @@
             <xdr:cNvPr id="217" name="타원 216">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7945F720-0BB7-4BDA-8309-97FB732BC169}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000D9000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -14139,7 +14093,7 @@
             <xdr:cNvPr id="218" name="그림 217">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000B6000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000DA000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -14174,7 +14128,7 @@
           <xdr:cNvPr id="212" name="그룹 211">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{558A459C-0B3C-4294-86E8-1CDA4A9DCC31}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000D4000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -14193,7 +14147,7 @@
             <xdr:cNvPr id="215" name="타원 214">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E01164C-859A-4A3B-B383-8F0CEBD01761}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000D7000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -14340,7 +14294,7 @@
             <xdr:cNvPr id="216" name="화살표: 위쪽 215">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000B2000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000D8000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -14496,7 +14450,7 @@
         <xdr:cNvPr id="221" name="그룹 220">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAD1CA4F-164E-480A-8C6C-4B3DF6323B24}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000DD000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14515,7 +14469,7 @@
           <xdr:cNvPr id="222" name="그룹 221">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14DD365D-8835-4A0E-9954-7019220020F5}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000DE000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -14534,7 +14488,7 @@
             <xdr:cNvPr id="229" name="타원 228">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFB96C24-BEA3-421B-AA16-5373E04F65C4}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000E5000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -14681,7 +14635,7 @@
             <xdr:cNvPr id="230" name="그림 229">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63B8F98F-4817-421C-8F5D-849B56515849}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000E6000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -14716,7 +14670,7 @@
           <xdr:cNvPr id="223" name="그룹 222">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77D43766-CC71-44BC-8E37-BBC44BAE82E0}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000DF000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -14735,7 +14689,7 @@
             <xdr:cNvPr id="227" name="타원 226">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C11B45E-8450-48F4-8807-49B568BEFFE8}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000E3000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -14882,7 +14836,7 @@
             <xdr:cNvPr id="228" name="화살표: 위쪽 227">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9061961-8DD0-4A17-9C4A-45603B1AA459}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000E4000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -15022,7 +14976,7 @@
           <xdr:cNvPr id="224" name="그룹 223">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12DD6445-4D35-4E2B-9997-C477E6371F79}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000E0000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -15041,7 +14995,7 @@
             <xdr:cNvPr id="225" name="타원 224">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A26DB6B-1022-44BA-BD86-BEF689B17205}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000E1000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -15188,7 +15142,7 @@
             <xdr:cNvPr id="226" name="그래픽 3" descr="렌치">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24438C6A-4635-4F64-9306-F987B37F056D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000E2000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -15243,7 +15197,7 @@
         <xdr:cNvPr id="15" name="직사각형 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{169067E0-5C46-44BA-ADA5-941AEBDD0F93}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15309,7 +15263,7 @@
         <xdr:cNvPr id="231" name="직사각형 230">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6761123-F767-41BF-807C-442257D2FE5B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000E7000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15375,7 +15329,7 @@
         <xdr:cNvPr id="232" name="직사각형 231">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6131240-B60E-4FCB-B12C-974843145F73}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000E8000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15441,7 +15395,7 @@
         <xdr:cNvPr id="233" name="직사각형 232">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A83C3008-6007-433D-9A9B-07DD67AA2262}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000E9000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15507,7 +15461,7 @@
         <xdr:cNvPr id="234" name="직사각형 233">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F619F73B-0183-4EA7-B861-21AC7363499D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000EA000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15573,7 +15527,7 @@
         <xdr:cNvPr id="17" name="직선 연결선 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6425E8A-7423-444D-9C6F-2852C9CB8788}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15628,7 +15582,7 @@
         <xdr:cNvPr id="235" name="직선 연결선 234">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49961C77-9CA4-4EA1-87A2-2F15036BBA1A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000EB000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15683,7 +15637,7 @@
         <xdr:cNvPr id="236" name="직선 연결선 235">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EBCED1F-8B31-4E27-A7C0-9ECFC5032EA8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000EC000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15738,7 +15692,7 @@
         <xdr:cNvPr id="237" name="직선 연결선 236">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F752111-C733-49ED-91D2-01E70FDB544F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000ED000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15793,7 +15747,7 @@
         <xdr:cNvPr id="238" name="직선 연결선 237">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7D072F2-6347-4172-8B69-A4C36556CA2B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000EE000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15848,7 +15802,7 @@
         <xdr:cNvPr id="239" name="타원 238">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A6EB879-8025-47F5-B4EB-F25FB72F6234}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000EF000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15928,7 +15882,7 @@
         <xdr:cNvPr id="240" name="타원 239">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{081CD8E9-CE1C-4E8E-95DE-D12921E02783}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000F0000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16008,7 +15962,7 @@
         <xdr:cNvPr id="241" name="타원 240">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0D5F8FF-A1A2-47DB-94DF-DBFDA44B0811}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000F1000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16088,7 +16042,7 @@
         <xdr:cNvPr id="242" name="타원 241">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91A1262A-3513-437B-A26C-9C15B49DADA8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000F2000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16168,7 +16122,7 @@
         <xdr:cNvPr id="243" name="타원 242">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C80642D-C3D5-40E0-AADB-B03FBD237F75}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000F3000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16271,7 +16225,7 @@
         <a:prstGeom prst="bentConnector4">
           <a:avLst>
             <a:gd name="adj1" fmla="val -18200"/>
-            <a:gd name="adj2" fmla="val 53227"/>
+            <a:gd name="adj2" fmla="val 89493"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln w="12700">
@@ -22512,23 +22466,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>350520</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>53341</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>295835</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>35858</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>300271</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>277965</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>98368</xdr:rowOff>
+      <xdr:rowOff>179126</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="91" name="그룹 90">
+        <xdr:cNvPr id="74" name="그룹 73">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00005B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47C4FD46-D067-4BDC-8960-F4E386033745}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22536,729 +22490,18 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3039932" y="53341"/>
-          <a:ext cx="8690339" cy="4303262"/>
-          <a:chOff x="4225" y="1"/>
-          <a:chExt cx="7175134" cy="3633200"/>
+          <a:off x="295835" y="259976"/>
+          <a:ext cx="3989354" cy="4177385"/>
+          <a:chOff x="803141" y="362122"/>
+          <a:chExt cx="3989354" cy="4177385"/>
         </a:xfrm>
       </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="92" name="직사각형 91">
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="75" name="그룹 74">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00005C000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4225" y="2779888"/>
-            <a:ext cx="7175134" cy="853313"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="accent2">
-              <a:lumMod val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:ln w="12700">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle>
-            <a:defPPr>
-              <a:defRPr lang="ko-KR"/>
-            </a:defPPr>
-            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="93" name="직사각형 92">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00005D000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4225" y="1"/>
-            <a:ext cx="7170909" cy="2733500"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-          <a:ln w="12700">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle>
-            <a:defPPr>
-              <a:defRPr lang="ko-KR"/>
-            </a:defPPr>
-            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
-              <a:t>ㅊ</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="94" name="직사각형 93">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00005E000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4225" y="2471476"/>
-            <a:ext cx="7170909" cy="327985"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="accent6">
-              <a:lumMod val="60000"/>
-              <a:lumOff val="40000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:ln w="12700">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle>
-            <a:defPPr>
-              <a:defRPr lang="ko-KR"/>
-            </a:defPPr>
-            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>578810</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>148041</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>140676</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>26465</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="42" name="그림 41">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002A000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="27172" r="21202"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6629986" y="1268629"/>
-          <a:ext cx="1578925" cy="1671365"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>90668</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>127395</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>322757</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>5477</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="33" name="그림 32">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000021000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="27172" r="21202"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9445683" y="1241087"/>
-          <a:ext cx="1568520" cy="1659990"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>418380</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>141318</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>651179</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>22879</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="29" name="그림 28">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001D000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="27172" r="21202"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3780145" y="1261906"/>
-          <a:ext cx="1577505" cy="1674502"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>212912</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>133562</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>140021</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>85085</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="47" name="그룹 46">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002F000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="212912" y="805915"/>
-          <a:ext cx="1944168" cy="2416817"/>
-          <a:chOff x="266700" y="1854785"/>
-          <a:chExt cx="1944168" cy="2416817"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="8" name="직선 연결선 7">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000008000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="433572" y="1872384"/>
-            <a:ext cx="0" cy="392355"/>
-          </a:xfrm>
-          <a:prstGeom prst="line">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="12700">
-            <a:solidFill>
-              <a:srgbClr val="00B050"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="9" name="직선 연결선 8">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000009000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="433572" y="3853363"/>
-            <a:ext cx="0" cy="389218"/>
-          </a:xfrm>
-          <a:prstGeom prst="line">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="12700">
-            <a:solidFill>
-              <a:srgbClr val="00B050"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="2" name="그룹 1">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B20006A0-5102-425E-AD30-69F93AD7A698}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -23266,18 +22509,52 @@
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="266700" y="1854785"/>
-            <a:ext cx="1944168" cy="2416817"/>
-            <a:chOff x="266700" y="1854785"/>
-            <a:chExt cx="1944168" cy="2416817"/>
+            <a:off x="1385569" y="362122"/>
+            <a:ext cx="3406926" cy="4177385"/>
+            <a:chOff x="669952" y="809383"/>
+            <a:chExt cx="3406926" cy="4177385"/>
           </a:xfrm>
         </xdr:grpSpPr>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="82" name="그림 81" descr="다채로운이(가) 표시된 사진&#10;&#10;자동 생성된 설명">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EE75C44-EB1F-402F-A23F-49307BFD4917}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill rotWithShape="1">
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:srcRect r="9096"/>
+            <a:stretch/>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="947349" y="809383"/>
+              <a:ext cx="3129529" cy="4177385"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
         <xdr:grpSp>
           <xdr:nvGrpSpPr>
-            <xdr:cNvPr id="7" name="그룹 6">
+            <xdr:cNvPr id="83" name="그룹 82">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11303A5F-6923-426F-941D-00D941EC324A}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -23285,52 +22562,18 @@
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
             <a:xfrm>
-              <a:off x="266700" y="2255933"/>
-              <a:ext cx="1944168" cy="1671365"/>
-              <a:chOff x="1298723" y="2671053"/>
-              <a:chExt cx="1938789" cy="1649401"/>
+              <a:off x="761770" y="4587724"/>
+              <a:ext cx="317284" cy="335494"/>
+              <a:chOff x="4512076" y="4587724"/>
+              <a:chExt cx="317284" cy="335494"/>
             </a:xfrm>
           </xdr:grpSpPr>
-          <xdr:pic>
-            <xdr:nvPicPr>
-              <xdr:cNvPr id="26" name="그림 25">
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="85" name="타원 84">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001A000000}"/>
-                  </a:ext>
-                </a:extLst>
-              </xdr:cNvPr>
-              <xdr:cNvPicPr>
-                <a:picLocks noChangeAspect="1"/>
-              </xdr:cNvPicPr>
-            </xdr:nvPicPr>
-            <xdr:blipFill rotWithShape="1">
-              <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-                <a:extLst>
-                  <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                    <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-                  </a:ext>
-                </a:extLst>
-              </a:blip>
-              <a:srcRect l="27172" r="21202"/>
-              <a:stretch/>
-            </xdr:blipFill>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="1662844" y="2671053"/>
-                <a:ext cx="1574668" cy="1649401"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-          </xdr:pic>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="27" name="직사각형 26">
-                <a:extLst>
-                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001B000000}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CFAEDB8-61EF-4ABF-92F2-5F9B94658761}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -23338,16 +22581,20 @@
             </xdr:nvSpPr>
             <xdr:spPr>
               <a:xfrm>
-                <a:off x="1298723" y="2679859"/>
-                <a:ext cx="295155" cy="195003"/>
+                <a:off x="4512076" y="4587724"/>
+                <a:ext cx="317284" cy="335494"/>
               </a:xfrm>
-              <a:prstGeom prst="rect">
+              <a:prstGeom prst="ellipse">
                 <a:avLst/>
               </a:prstGeom>
-              <a:noFill/>
-              <a:ln w="12700">
-                <a:solidFill>
-                  <a:srgbClr val="00B050"/>
+              <a:solidFill>
+                <a:srgbClr val="C5E0B4"/>
+              </a:solidFill>
+              <a:ln w="28575">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
                 </a:solidFill>
               </a:ln>
             </xdr:spPr>
@@ -23470,158 +22717,48 @@
               </a:p>
             </xdr:txBody>
           </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="28" name="직사각형 27">
+          <xdr:pic>
+            <xdr:nvPicPr>
+              <xdr:cNvPr id="86" name="그림 85">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001C000000}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7841CBEF-D71E-4ABB-8F40-893DC33D4B23}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
-              <xdr:cNvSpPr/>
-            </xdr:nvSpPr>
+              <xdr:cNvPicPr>
+                <a:picLocks noChangeAspect="1"/>
+              </xdr:cNvPicPr>
+            </xdr:nvPicPr>
+            <xdr:blipFill>
+              <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+                <a:extLst>
+                  <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                    <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                  </a:ext>
+                </a:extLst>
+              </a:blip>
+              <a:stretch>
+                <a:fillRect/>
+              </a:stretch>
+            </xdr:blipFill>
             <xdr:spPr>
               <a:xfrm>
-                <a:off x="1298723" y="2934382"/>
-                <a:ext cx="295155" cy="1310783"/>
+                <a:off x="4611447" y="4641868"/>
+                <a:ext cx="118542" cy="227205"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
                 <a:avLst/>
               </a:prstGeom>
-              <a:noFill/>
-              <a:ln w="12700">
-                <a:solidFill>
-                  <a:srgbClr val="00B050"/>
-                </a:solidFill>
-              </a:ln>
             </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="2">
-                <a:schemeClr val="accent1">
-                  <a:shade val="50000"/>
-                </a:schemeClr>
-              </a:lnRef>
-              <a:fillRef idx="1">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
-              <a:lstStyle>
-                <a:defPPr>
-                  <a:defRPr lang="ko-KR"/>
-                </a:defPPr>
-                <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                  <a:defRPr sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl1pPr>
-                <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                  <a:defRPr sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl2pPr>
-                <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                  <a:defRPr sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl3pPr>
-                <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                  <a:defRPr sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl4pPr>
-                <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                  <a:defRPr sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl5pPr>
-                <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                  <a:defRPr sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl6pPr>
-                <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                  <a:defRPr sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl7pPr>
-                <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                  <a:defRPr sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl8pPr>
-                <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                  <a:defRPr sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl9pPr>
-              </a:lstStyle>
-              <a:p>
-                <a:pPr algn="ctr"/>
-                <a:endParaRPr lang="ko-KR" altLang="en-US"/>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
+          </xdr:pic>
         </xdr:grpSp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10" name="직사각형 9">
+            <xdr:cNvPr id="84" name="직사각형 83">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000A000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E86F285-FC4D-4173-B04D-A8D9AB197E03}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -23629,19 +22766,15 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="359717" y="1854785"/>
-              <a:ext cx="147710" cy="213777"/>
+              <a:off x="669952" y="2810786"/>
+              <a:ext cx="554794" cy="223884"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-            <a:ln w="12700">
-              <a:solidFill>
-                <a:srgbClr val="00B050"/>
-              </a:solidFill>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
           </xdr:spPr>
           <xdr:style>
@@ -23760,940 +22893,28 @@
             <a:p>
               <a:pPr algn="ctr"/>
               <a:r>
-                <a:rPr lang="en-US" altLang="ko-KR" sz="1000">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
+                <a:rPr lang="en-US" altLang="ko-KR" sz="1000" b="1">
+                  <a:solidFill>
+                    <a:schemeClr val="accent6"/>
                   </a:solidFill>
                 </a:rPr>
-                <a:t>1</a:t>
+                <a:t>20</a:t>
               </a:r>
-              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1000">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="11" name="직사각형 10">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000B000000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="359717" y="4057826"/>
-              <a:ext cx="147710" cy="213776"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-            <a:ln w="12700">
-              <a:solidFill>
-                <a:srgbClr val="00B050"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
-            <a:lstStyle>
-              <a:defPPr>
-                <a:defRPr lang="ko-KR"/>
-              </a:defPPr>
-              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                <a:defRPr sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl1pPr>
-              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                <a:defRPr sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl2pPr>
-              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                <a:defRPr sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl3pPr>
-              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                <a:defRPr sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl4pPr>
-              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                <a:defRPr sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl5pPr>
-              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                <a:defRPr sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl6pPr>
-              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                <a:defRPr sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl7pPr>
-              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                <a:defRPr sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl8pPr>
-              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-                <a:defRPr sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl9pPr>
-            </a:lstStyle>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr lang="en-US" altLang="ko-KR" sz="1000">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                </a:rPr>
-                <a:t>2</a:t>
-              </a:r>
-              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1000">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
+              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1000" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
                 </a:solidFill>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
       </xdr:grpSp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>83820</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="95" name="직사각형 94">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00005F000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3406140" y="1173480"/>
-          <a:ext cx="2042160" cy="1790700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:srgbClr val="C00000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>645458</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>205740</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="96" name="직사각형 95">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000060000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6024282" y="1181548"/>
-          <a:ext cx="2249693" cy="1815801"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:srgbClr val="C00000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>242048</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>373381</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="97" name="직사각형 96">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000061000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8982636" y="1173928"/>
-          <a:ext cx="2148392" cy="1815801"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:srgbClr val="C00000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>591362</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>112810</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>591362</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>57602</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="100" name="직선 연결선 99">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000064000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7296962" y="775750"/>
-          <a:ext cx="0" cy="386752"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:srgbClr val="C00000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>225602</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>97570</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>225602</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>42362</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="102" name="직선 연결선 101">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000066000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10284002" y="760510"/>
-          <a:ext cx="0" cy="386752"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:srgbClr val="C00000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>175260</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>164042</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>350520</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>205740</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="104" name="직사각형 103">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000068000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6210300" y="385022"/>
-          <a:ext cx="2186940" cy="483658"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:srgbClr val="C00000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="ko-KR"/>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>대기열에 있는 유닛이 건물의 좌측에 출력됩니다</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1000">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>.</a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1000">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>335280</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>125506</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>161365</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>198120</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="105" name="직사각형 104">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000069000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9075868" y="125506"/>
-          <a:ext cx="2515497" cy="744967"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:srgbClr val="C00000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="ko-KR"/>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>생산큐의 모든 공간이 채워진 상태입니다</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1000">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>. </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>큐는 아래쪽부터 삽입됩니다</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1000">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>최대 다섯마리까지 큐에</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> 삽입됩니다</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1000" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>.</a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1000">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>255504</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>187568</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>503556</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>212398</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="5" name="그룹 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="6306680" y="2652862"/>
-          <a:ext cx="248052" cy="248948"/>
-          <a:chOff x="6210825" y="2455598"/>
-          <a:chExt cx="324789" cy="324156"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="40" name="직사각형 39">
+          <xdr:cNvPr id="76" name="직사각형 75">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000028000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B1A203F-A07F-4D51-82EA-A6EB6CA9E17A}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -24701,18 +22922,16 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="6210825" y="2455598"/>
-            <a:ext cx="324789" cy="324156"/>
+            <a:off x="1385569" y="4073642"/>
+            <a:ext cx="482988" cy="465865"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
           </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-          <a:ln w="28575">
+          <a:noFill/>
+          <a:ln>
             <a:solidFill>
-              <a:srgbClr val="00B050"/>
+              <a:srgbClr val="C00000"/>
             </a:solidFill>
           </a:ln>
         </xdr:spPr>
@@ -24835,81 +23054,12 @@
           </a:p>
         </xdr:txBody>
       </xdr:sp>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="36" name="그림 35" descr="무기, 검, 나이프, 비행이(가) 표시된 사진&#10;&#10;자동 생성된 설명">
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="77" name="직사각형 76">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000024000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill rotWithShape="1">
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:srcRect l="11788" t="1" r="115" b="16354"/>
-          <a:stretch/>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm rot="10800000">
-            <a:off x="6264310" y="2528611"/>
-            <a:ext cx="206829" cy="201841"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>431350</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>169983</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>11187</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>194813</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="41" name="그룹 40">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000029000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="9171938" y="2635277"/>
-          <a:ext cx="252190" cy="248948"/>
-          <a:chOff x="6210825" y="2455598"/>
-          <a:chExt cx="324789" cy="324156"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="44" name="직사각형 43">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002C000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43B931D4-91F9-468D-AFEA-16A654435513}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -24917,18 +23067,16 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="6210825" y="2455598"/>
-            <a:ext cx="324789" cy="324156"/>
+            <a:off x="1497075" y="2363525"/>
+            <a:ext cx="331782" cy="223884"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
           </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-          <a:ln w="28575">
+          <a:noFill/>
+          <a:ln>
             <a:solidFill>
-              <a:srgbClr val="00B050"/>
+              <a:srgbClr val="C00000"/>
             </a:solidFill>
           </a:ln>
         </xdr:spPr>
@@ -25051,81 +23199,98 @@
           </a:p>
         </xdr:txBody>
       </xdr:sp>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="45" name="그림 44" descr="무기, 검, 나이프, 비행이(가) 표시된 사진&#10;&#10;자동 생성된 설명">
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="78" name="직선 연결선 77">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002D000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9270E6BC-BBC3-4BDA-AC1C-59084C8CECDB}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill rotWithShape="1">
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <xdr:cNvCxnSpPr>
+            <a:cxnSpLocks/>
+            <a:endCxn id="77" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="989422" y="2475467"/>
+            <a:ext cx="507653" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="79" name="직선 연결선 78">
             <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C020ACED-DC6F-4FC6-B98E-641A03E8007B}"/>
               </a:ext>
             </a:extLst>
-          </a:blip>
-          <a:srcRect l="11788" t="1" r="115" b="16354"/>
-          <a:stretch/>
-        </xdr:blipFill>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:cxnSpLocks/>
+            <a:endCxn id="76" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
         <xdr:spPr>
-          <a:xfrm rot="10800000">
-            <a:off x="6264310" y="2528611"/>
-            <a:ext cx="206829" cy="201841"/>
+          <a:xfrm>
+            <a:off x="896281" y="4306575"/>
+            <a:ext cx="489288" cy="0"/>
           </a:xfrm>
-          <a:prstGeom prst="rect">
+          <a:prstGeom prst="line">
             <a:avLst/>
           </a:prstGeom>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
+          </a:ln>
         </xdr:spPr>
-      </xdr:pic>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>425488</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>93782</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>5325</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>118613</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="50" name="그룹 49">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000032000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="9166076" y="2334958"/>
-          <a:ext cx="252190" cy="248949"/>
-          <a:chOff x="6210825" y="2455598"/>
-          <a:chExt cx="324789" cy="324156"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="51" name="직사각형 50">
+          <xdr:cNvPr id="80" name="직사각형 79">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000033000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4F8AD1A-1585-4193-BC55-CA47E59323BA}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -25133,8 +23298,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="6210825" y="2455598"/>
-            <a:ext cx="324789" cy="324156"/>
+            <a:off x="803141" y="2303636"/>
+            <a:ext cx="186281" cy="223884"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -25144,7 +23309,7 @@
           </a:solidFill>
           <a:ln>
             <a:solidFill>
-              <a:srgbClr val="0070C0"/>
+              <a:srgbClr val="C00000"/>
             </a:solidFill>
           </a:ln>
         </xdr:spPr>
@@ -25263,85 +23428,28 @@
           </a:lstStyle>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1000">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>1</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="52" name="그림 51" descr="무기, 검, 나이프, 비행이(가) 표시된 사진&#10;&#10;자동 생성된 설명">
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="81" name="직사각형 80">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000034000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill rotWithShape="1">
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:srcRect l="11788" t="1" r="115" b="16354"/>
-          <a:stretch/>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm rot="10800000">
-            <a:off x="6264310" y="2528611"/>
-            <a:ext cx="206829" cy="201841"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>419626</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>23444</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>667678</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>48274</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="53" name="그룹 52">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000035000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="9160214" y="2040503"/>
-          <a:ext cx="248052" cy="248947"/>
-          <a:chOff x="6210825" y="2455598"/>
-          <a:chExt cx="324789" cy="324156"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="54" name="직사각형 53">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000036000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D899D540-7320-4265-894E-16052C4F0216}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -25349,8 +23457,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="6210825" y="2455598"/>
-            <a:ext cx="324789" cy="324156"/>
+            <a:off x="813079" y="4193415"/>
+            <a:ext cx="186281" cy="223884"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -25360,7 +23468,7 @@
           </a:solidFill>
           <a:ln>
             <a:solidFill>
-              <a:srgbClr val="0070C0"/>
+              <a:srgbClr val="C00000"/>
             </a:solidFill>
           </a:ln>
         </xdr:spPr>
@@ -25479,66 +23587,44 @@
           </a:lstStyle>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1000">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>2</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="55" name="그림 54" descr="무기, 검, 나이프, 비행이(가) 표시된 사진&#10;&#10;자동 생성된 설명">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000037000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill rotWithShape="1">
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:srcRect l="11788" t="1" r="115" b="16354"/>
-          <a:stretch/>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm rot="10800000">
-            <a:off x="6264310" y="2528611"/>
-            <a:ext cx="206829" cy="201841"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>419626</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>175843</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>412378</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>26893</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>667678</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>200673</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>508319</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>166929</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="56" name="그룹 55">
+        <xdr:cNvPr id="87" name="그룹 86">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000038000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B838BD4A-7FF1-49AC-B060-857929730BC7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25546,18 +23632,18 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9160214" y="1744667"/>
-          <a:ext cx="248052" cy="248947"/>
-          <a:chOff x="6210825" y="2455598"/>
-          <a:chExt cx="324789" cy="324156"/>
+          <a:off x="7109013" y="475128"/>
+          <a:ext cx="768294" cy="812389"/>
+          <a:chOff x="7300136" y="3261253"/>
+          <a:chExt cx="317284" cy="335494"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="57" name="직사각형 56">
+          <xdr:cNvPr id="88" name="타원 87">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000039000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2D272CA-DC43-4F87-85B3-D4B46BCB1BAB}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -25565,18 +23651,20 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="6210825" y="2455598"/>
-            <a:ext cx="324789" cy="324156"/>
+            <a:off x="7300136" y="3261253"/>
+            <a:ext cx="317284" cy="335494"/>
           </a:xfrm>
-          <a:prstGeom prst="rect">
+          <a:prstGeom prst="ellipse">
             <a:avLst/>
           </a:prstGeom>
           <a:solidFill>
-            <a:schemeClr val="bg1"/>
+            <a:srgbClr val="C5E0B4"/>
           </a:solidFill>
-          <a:ln>
+          <a:ln w="28575">
             <a:solidFill>
-              <a:srgbClr val="0070C0"/>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
             </a:solidFill>
           </a:ln>
         </xdr:spPr>
@@ -25701,10 +23789,10 @@
       </xdr:sp>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="58" name="그림 57" descr="무기, 검, 나이프, 비행이(가) 표시된 사진&#10;&#10;자동 생성된 설명">
+          <xdr:cNvPr id="89" name="그림 88">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00003A000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D08A605C-B0FF-4A80-A4EF-B30CAFF3E7F9}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -25712,21 +23800,22 @@
             <a:picLocks noChangeAspect="1"/>
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
-        <xdr:blipFill rotWithShape="1">
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
             </a:extLst>
           </a:blip>
-          <a:srcRect l="11788" t="1" r="115" b="16354"/>
-          <a:stretch/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
         </xdr:blipFill>
         <xdr:spPr>
-          <a:xfrm rot="10800000">
-            <a:off x="6264310" y="2528611"/>
-            <a:ext cx="206829" cy="201841"/>
+          <a:xfrm>
+            <a:off x="7399507" y="3315397"/>
+            <a:ext cx="118542" cy="227205"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -25734,562 +23823,6 @@
         </xdr:spPr>
       </xdr:pic>
     </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>419626</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>111367</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>667678</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>136198</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="59" name="그룹 58">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00003B000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="9160214" y="1456073"/>
-          <a:ext cx="248052" cy="248949"/>
-          <a:chOff x="6210825" y="2455598"/>
-          <a:chExt cx="324789" cy="324156"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="60" name="직사각형 59">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00003C000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="6210825" y="2455598"/>
-            <a:ext cx="324789" cy="324156"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="0070C0"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle>
-            <a:defPPr>
-              <a:defRPr lang="ko-KR"/>
-            </a:defPPr>
-            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:endParaRPr lang="ko-KR" altLang="en-US"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="61" name="그림 60" descr="무기, 검, 나이프, 비행이(가) 표시된 사진&#10;&#10;자동 생성된 설명">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00003D000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill rotWithShape="1">
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:srcRect l="11788" t="1" r="115" b="16354"/>
-          <a:stretch/>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm rot="10800000">
-            <a:off x="6264310" y="2528611"/>
-            <a:ext cx="206829" cy="201841"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>242047</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>169421</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>589568</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>143435</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="46" name="직사각형 45">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96C9BE4A-8AAA-4250-9D7F-728EC4D32D58}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6293223" y="1290009"/>
-          <a:ext cx="347521" cy="198132"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="12700">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="ko-KR"/>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1000">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>20</a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1000">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>376518</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>160457</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>51686</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>134471</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="48" name="직사각형 47">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{957E0A23-0379-4A52-A10E-B9519E2E6598}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9117106" y="1281045"/>
-          <a:ext cx="347521" cy="198132"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="12700">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="ko-KR"/>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1000">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>20</a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1000">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -26315,7 +23848,7 @@
         <xdr:cNvPr id="2" name="그룹 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26334,7 +23867,7 @@
           <xdr:cNvPr id="3" name="연결선: 꺾임 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -26382,7 +23915,7 @@
           <xdr:cNvPr id="4" name="그룹 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -26401,7 +23934,7 @@
             <xdr:cNvPr id="22" name="그룹 21">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000016000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000016000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -26420,7 +23953,7 @@
               <xdr:cNvPr id="27" name="순서도: 판단 26">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001B000000}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001B000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -26595,7 +24128,7 @@
               <xdr:cNvPr id="28" name="직사각형 27">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001C000000}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001C000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -26762,7 +24295,7 @@
               <xdr:cNvPr id="29" name="직선 화살표 연결선 28">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001D000000}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001D000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -26807,7 +24340,7 @@
               <xdr:cNvPr id="30" name="직사각형 29">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001E000000}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001E000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -26990,7 +24523,7 @@
               <xdr:cNvPr id="31" name="직선 화살표 연결선 30">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001F000000}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001F000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -27035,7 +24568,7 @@
               <xdr:cNvPr id="32" name="직사각형 31">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000020000000}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000020000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -27181,7 +24714,7 @@
             <xdr:cNvPr id="23" name="TextBox 120">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000017000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000017000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -27319,7 +24852,7 @@
             <xdr:cNvPr id="24" name="TextBox 143">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000018000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000018000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -27457,7 +24990,7 @@
             <xdr:cNvPr id="25" name="직사각형 24">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000019000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000019000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -27624,7 +25157,7 @@
             <xdr:cNvPr id="26" name="직선 화살표 연결선 25">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001A000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001A000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -27670,7 +25203,7 @@
           <xdr:cNvPr id="5" name="그룹 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000005000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -27689,7 +25222,7 @@
             <xdr:cNvPr id="11" name="그룹 10">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000B000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000B000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -27708,7 +25241,7 @@
               <xdr:cNvPr id="16" name="순서도: 판단 15">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000010000000}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000010000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -27883,7 +25416,7 @@
               <xdr:cNvPr id="17" name="직사각형 16">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000011000000}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000011000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -28050,7 +25583,7 @@
               <xdr:cNvPr id="18" name="직선 화살표 연결선 17">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000012000000}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000012000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -28095,7 +25628,7 @@
               <xdr:cNvPr id="19" name="직사각형 18">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000013000000}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000013000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -28265,7 +25798,7 @@
               <xdr:cNvPr id="20" name="직선 화살표 연결선 19">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000014000000}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000014000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -28310,7 +25843,7 @@
               <xdr:cNvPr id="21" name="직사각형 20">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000015000000}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000015000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -28456,7 +25989,7 @@
             <xdr:cNvPr id="12" name="TextBox 120">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000C000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000C000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -28594,7 +26127,7 @@
             <xdr:cNvPr id="13" name="TextBox 143">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000D000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000D000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -28732,7 +26265,7 @@
             <xdr:cNvPr id="14" name="직사각형 13">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000E000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000E000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -28899,7 +26432,7 @@
             <xdr:cNvPr id="15" name="직선 화살표 연결선 14">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000F000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000F000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -28945,7 +26478,7 @@
           <xdr:cNvPr id="6" name="연결선: 꺾임 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000006000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000006000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -28994,7 +26527,7 @@
           <xdr:cNvPr id="7" name="직사각형 6">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000007000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000007000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -29146,7 +26679,7 @@
           <xdr:cNvPr id="8" name="직사각형 7">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000008000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000008000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -29313,7 +26846,7 @@
           <xdr:cNvPr id="9" name="타원 8">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000009000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000009000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -29472,7 +27005,7 @@
           <xdr:cNvPr id="10" name="타원 9">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000A000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000A000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -29647,7 +27180,7 @@
         <xdr:cNvPr id="101" name="그룹 100">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000065000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000065000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29666,7 +27199,7 @@
           <xdr:cNvPr id="102" name="직사각형 101">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000066000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000066000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -29813,7 +27346,7 @@
           <xdr:cNvPr id="103" name="사각형: 둥근 모서리 102">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000067000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000067000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -29978,7 +27511,7 @@
           <xdr:cNvPr id="104" name="사각형: 둥근 모서리 103">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000068000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000068000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -30136,7 +27669,7 @@
           <xdr:cNvPr id="105" name="사각형: 둥근 모서리 104">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000069000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000069000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -30294,7 +27827,7 @@
           <xdr:cNvPr id="106" name="그래픽 37" descr="어두움(작은 태양)">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00006A000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00006A000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -30348,7 +27881,7 @@
         <xdr:cNvPr id="107" name="연결선: 꺾임 106">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00006B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00006B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30411,7 +27944,7 @@
         <xdr:cNvPr id="112" name="직사각형 111">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000070000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000070000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30575,7 +28108,7 @@
         <xdr:cNvPr id="113" name="직사각형 112">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000071000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000071000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30744,7 +28277,7 @@
         <xdr:cNvPr id="2" name="직사각형 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30918,7 +28451,7 @@
         <xdr:cNvPr id="3" name="직사각형 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31095,7 +28628,7 @@
         <xdr:cNvPr id="4" name="직선 화살표 연결선 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31155,7 +28688,7 @@
         <xdr:cNvPr id="5" name="직사각형 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31329,7 +28862,7 @@
         <xdr:cNvPr id="6" name="직선 화살표 연결선 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31389,7 +28922,7 @@
         <xdr:cNvPr id="7" name="직사각형 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31563,7 +29096,7 @@
         <xdr:cNvPr id="8" name="직사각형 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31737,7 +29270,7 @@
         <xdr:cNvPr id="9" name="직사각형 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31911,7 +29444,7 @@
         <xdr:cNvPr id="10" name="그룹 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31930,7 +29463,7 @@
           <xdr:cNvPr id="28" name="직사각형 27">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00001C000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001C000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -32085,7 +29618,7 @@
           <xdr:cNvPr id="29" name="직사각형 28">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00001D000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001D000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -32255,7 +29788,7 @@
           <xdr:cNvPr id="30" name="직사각형 29">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00001E000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001E000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -32409,7 +29942,7 @@
           <xdr:cNvPr id="31" name="직사각형 30">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00001F000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001F000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -32563,7 +30096,7 @@
           <xdr:cNvPr id="32" name="직사각형 31">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000020000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000020000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -32724,7 +30257,7 @@
         <xdr:cNvPr id="11" name="그룹 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32743,7 +30276,7 @@
           <xdr:cNvPr id="23" name="직사각형 22">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000017000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000017000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -32888,7 +30421,7 @@
           <xdr:cNvPr id="24" name="직사각형 23">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000018000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000018000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -33071,7 +30604,7 @@
           <xdr:cNvPr id="25" name="직사각형 24">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000019000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000019000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -33233,7 +30766,7 @@
           <xdr:cNvPr id="26" name="직사각형 25">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00001A000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001A000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -33395,7 +30928,7 @@
           <xdr:cNvPr id="27" name="직사각형 26">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00001B000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001B000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -33566,7 +31099,7 @@
         <xdr:cNvPr id="12" name="직사각형 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33740,7 +31273,7 @@
         <xdr:cNvPr id="13" name="직선 화살표 연결선 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33800,7 +31333,7 @@
         <xdr:cNvPr id="14" name="그룹 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33819,7 +31352,7 @@
           <xdr:cNvPr id="17" name="그룹 16">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000011000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000011000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -33838,7 +31371,7 @@
             <xdr:cNvPr id="19" name="직사각형 18">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000013000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000013000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -34000,7 +31533,7 @@
             <xdr:cNvPr id="20" name="직사각형 19">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000014000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000014000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -34162,7 +31695,7 @@
             <xdr:cNvPr id="21" name="직사각형 20">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000015000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000015000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -34324,7 +31857,7 @@
             <xdr:cNvPr id="22" name="직사각형 21">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000016000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000016000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -34470,7 +32003,7 @@
           <xdr:cNvPr id="18" name="직사각형 17">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000012000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000012000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -34641,7 +32174,7 @@
         <xdr:cNvPr id="15" name="직사각형 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -34801,7 +32334,7 @@
         <xdr:cNvPr id="16" name="직사각형 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -34971,7 +32504,7 @@
         <xdr:cNvPr id="33" name="그룹 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000021000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -34990,7 +32523,7 @@
           <xdr:cNvPr id="34" name="그룹 33">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000022000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000022000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -35009,7 +32542,7 @@
             <xdr:cNvPr id="41" name="직사각형 40">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000029000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000029000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -35158,7 +32691,7 @@
             <xdr:cNvPr id="42" name="직사각형 41">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00002A000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00002A000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -35305,7 +32838,7 @@
             <xdr:cNvPr id="43" name="직사각형 42">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00002B000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00002B000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -35456,7 +32989,7 @@
           <xdr:cNvPr id="35" name="그림 34">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000023000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000023000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -35490,7 +33023,7 @@
           <xdr:cNvPr id="36" name="직사각형 35">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000024000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000024000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -35635,7 +33168,7 @@
           <xdr:cNvPr id="37" name="직사각형 36">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000025000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000025000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -35782,7 +33315,7 @@
           <xdr:cNvPr id="38" name="직사각형 37">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000026000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000026000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -35929,7 +33462,7 @@
           <xdr:cNvPr id="39" name="직사각형 38">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000027000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000027000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -36074,7 +33607,7 @@
           <xdr:cNvPr id="40" name="직사각형 39">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000028000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000028000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -36235,7 +33768,7 @@
         <xdr:cNvPr id="44" name="그룹 43">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00002C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00002C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -36254,7 +33787,7 @@
           <xdr:cNvPr id="46" name="순서도: 가산 접합 45">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00002E000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00002E000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -36401,7 +33934,7 @@
           <xdr:cNvPr id="47" name="부분 원형 46">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00002F000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00002F000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -36556,7 +34089,7 @@
           <xdr:cNvPr id="48" name="화살표: 위쪽 47">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000030000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000030000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -36695,7 +34228,7 @@
           <xdr:cNvPr id="49" name="그룹 48">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000031000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000031000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -36714,7 +34247,7 @@
             <xdr:cNvPr id="53" name="그림 52">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000035000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000035000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -36748,7 +34281,7 @@
             <xdr:cNvPr id="54" name="직선 연결선 53">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000036000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000036000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -36791,7 +34324,7 @@
           <xdr:cNvPr id="50" name="그래픽 3" descr="렌치">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000032000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000032000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -36829,7 +34362,7 @@
           <xdr:cNvPr id="51" name="곱하기 기호 50">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000033000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000033000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -36976,7 +34509,7 @@
           <xdr:cNvPr id="52" name="그래픽 76" descr="커서">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000034000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000034000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -37030,7 +34563,7 @@
         <xdr:cNvPr id="45" name="TextBox 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00002D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00002D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -37183,7 +34716,7 @@
         <xdr:cNvPr id="55" name="직사각형 54">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000037000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000037000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -37343,7 +34876,7 @@
         <xdr:cNvPr id="56" name="화살표: 오른쪽 55">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000038000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000038000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -37497,7 +35030,7 @@
         <xdr:cNvPr id="64" name="그룹 63">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000040000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000040000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -37516,7 +35049,7 @@
           <xdr:cNvPr id="65" name="그룹 64">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000041000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000041000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -37535,7 +35068,7 @@
             <xdr:cNvPr id="72" name="직사각형 71">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000048000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000048000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -37684,7 +35217,7 @@
             <xdr:cNvPr id="73" name="직사각형 72">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000049000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000049000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -37831,7 +35364,7 @@
             <xdr:cNvPr id="74" name="직사각형 73">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00004A000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00004A000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -37982,7 +35515,7 @@
           <xdr:cNvPr id="66" name="그림 65">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000042000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000042000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -38016,7 +35549,7 @@
           <xdr:cNvPr id="67" name="직사각형 66">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000043000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000043000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -38161,7 +35694,7 @@
           <xdr:cNvPr id="68" name="직사각형 67">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000044000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000044000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -38308,7 +35841,7 @@
           <xdr:cNvPr id="69" name="직사각형 68">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000045000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000045000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -38455,7 +35988,7 @@
           <xdr:cNvPr id="70" name="직사각형 69">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000046000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000046000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -38600,7 +36133,7 @@
           <xdr:cNvPr id="71" name="직사각형 70">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000047000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000047000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -38761,7 +36294,7 @@
         <xdr:cNvPr id="75" name="화살표: 오른쪽 74">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00004B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00004B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -38915,7 +36448,7 @@
         <xdr:cNvPr id="76" name="그룹 75">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00004C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00004C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -38934,7 +36467,7 @@
           <xdr:cNvPr id="77" name="그룹 76">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00004D000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00004D000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -38953,7 +36486,7 @@
             <xdr:cNvPr id="85" name="그룹 84">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000055000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000055000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -38972,7 +36505,7 @@
               <xdr:cNvPr id="91" name="직사각형 90">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00005B000000}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00005B000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -39121,7 +36654,7 @@
               <xdr:cNvPr id="92" name="직사각형 91">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00005C000000}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00005C000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -39268,7 +36801,7 @@
               <xdr:cNvPr id="93" name="직사각형 92">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00005D000000}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00005D000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -39419,7 +36952,7 @@
             <xdr:cNvPr id="86" name="직사각형 85">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000056000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000056000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -39564,7 +37097,7 @@
             <xdr:cNvPr id="87" name="직사각형 86">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000057000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000057000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -39711,7 +37244,7 @@
             <xdr:cNvPr id="88" name="직사각형 87">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000058000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000058000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -39858,7 +37391,7 @@
             <xdr:cNvPr id="89" name="직사각형 88">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000059000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000059000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -40003,7 +37536,7 @@
             <xdr:cNvPr id="90" name="직사각형 89">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00005A000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00005A000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -40149,7 +37682,7 @@
           <xdr:cNvPr id="78" name="그룹 77">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00004E000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00004E000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -40168,7 +37701,7 @@
             <xdr:cNvPr id="79" name="그림 78">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00004F000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00004F000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -40202,7 +37735,7 @@
             <xdr:cNvPr id="80" name="직사각형 79">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000050000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000050000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -40352,7 +37885,7 @@
             <xdr:cNvPr id="81" name="직사각형 80">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000051000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000051000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -40502,7 +38035,7 @@
             <xdr:cNvPr id="82" name="직사각형 81">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000052000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000052000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -40652,7 +38185,7 @@
             <xdr:cNvPr id="83" name="직사각형 82">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000053000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000053000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -40802,7 +38335,7 @@
             <xdr:cNvPr id="84" name="직사각형 83">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000054000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000054000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -40974,7 +38507,7 @@
         <xdr:cNvPr id="2" name="그룹 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -40993,7 +38526,7 @@
           <xdr:cNvPr id="36" name="그룹 35">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000024000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000024000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -41012,7 +38545,7 @@
             <xdr:cNvPr id="43" name="직사각형 42">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00002B000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00002B000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -41161,7 +38694,7 @@
             <xdr:cNvPr id="44" name="직사각형 43">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00002C000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00002C000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -41308,7 +38841,7 @@
             <xdr:cNvPr id="45" name="직사각형 44">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00002D000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00002D000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -41459,7 +38992,7 @@
           <xdr:cNvPr id="37" name="그림 36">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000025000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000025000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -41493,7 +39026,7 @@
           <xdr:cNvPr id="38" name="직사각형 37">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000026000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000026000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -41638,7 +39171,7 @@
           <xdr:cNvPr id="39" name="직사각형 38">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000027000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000027000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -41785,7 +39318,7 @@
           <xdr:cNvPr id="40" name="직사각형 39">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000028000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000028000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -41932,7 +39465,7 @@
           <xdr:cNvPr id="41" name="직사각형 40">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000029000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000029000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -42077,7 +39610,7 @@
           <xdr:cNvPr id="42" name="직사각형 41">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00002A000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00002A000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -42238,7 +39771,7 @@
         <xdr:cNvPr id="3" name="그룹 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -42257,7 +39790,7 @@
           <xdr:cNvPr id="27" name="그룹 26">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00001B000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00001B000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -42276,7 +39809,7 @@
             <xdr:cNvPr id="33" name="직사각형 32">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000021000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000021000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -42425,7 +39958,7 @@
             <xdr:cNvPr id="34" name="직사각형 33">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000022000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000022000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -42572,7 +40105,7 @@
             <xdr:cNvPr id="35" name="직사각형 34">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000023000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000023000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -42723,7 +40256,7 @@
           <xdr:cNvPr id="28" name="직사각형 27">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00001C000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00001C000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -42868,7 +40401,7 @@
           <xdr:cNvPr id="29" name="직사각형 28">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00001D000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00001D000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -43013,7 +40546,7 @@
           <xdr:cNvPr id="30" name="직사각형 29">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00001E000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00001E000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -43158,7 +40691,7 @@
           <xdr:cNvPr id="31" name="직사각형 30">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00001F000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00001F000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -43303,7 +40836,7 @@
           <xdr:cNvPr id="32" name="직사각형 31">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000020000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000020000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -43464,7 +40997,7 @@
         <xdr:cNvPr id="4" name="그룹 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -43483,7 +41016,7 @@
           <xdr:cNvPr id="18" name="순서도: 가산 접합 17">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000012000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000012000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -43630,7 +41163,7 @@
           <xdr:cNvPr id="19" name="부분 원형 18">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000013000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000013000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -43785,7 +41318,7 @@
           <xdr:cNvPr id="20" name="화살표: 위쪽 19">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000014000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000014000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -43924,7 +41457,7 @@
           <xdr:cNvPr id="21" name="그룹 20">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000015000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000015000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -43943,7 +41476,7 @@
             <xdr:cNvPr id="25" name="그림 24">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000019000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000019000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -43977,7 +41510,7 @@
             <xdr:cNvPr id="26" name="직선 연결선 25">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00001A000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00001A000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -44020,7 +41553,7 @@
           <xdr:cNvPr id="22" name="그래픽 3" descr="렌치">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000016000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000016000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -44058,7 +41591,7 @@
           <xdr:cNvPr id="23" name="곱하기 기호 22">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000017000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000017000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -44205,7 +41738,7 @@
           <xdr:cNvPr id="24" name="그래픽 76" descr="커서">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000018000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000018000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -44259,7 +41792,7 @@
         <xdr:cNvPr id="5" name="TextBox 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -44412,7 +41945,7 @@
         <xdr:cNvPr id="6" name="그림 5" descr="옅은, 램프이(가) 표시된 사진&#10;&#10;자동 생성된 설명">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -44462,7 +41995,7 @@
         <xdr:cNvPr id="7" name="그림 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -44511,7 +42044,7 @@
         <xdr:cNvPr id="8" name="그림 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -44567,7 +42100,7 @@
         <xdr:cNvPr id="9" name="화살표: 오른쪽 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -44721,7 +42254,7 @@
         <xdr:cNvPr id="10" name="화살표: 오른쪽 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -44875,7 +42408,7 @@
         <xdr:cNvPr id="11" name="화살표: 오른쪽 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -45029,7 +42562,7 @@
         <xdr:cNvPr id="12" name="직사각형 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -45189,7 +42722,7 @@
         <xdr:cNvPr id="13" name="내용 개체 틀 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -45369,7 +42902,7 @@
         <xdr:cNvPr id="14" name="내용 개체 틀 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -45528,7 +43061,7 @@
         <xdr:cNvPr id="15" name="내용 개체 틀 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -45679,7 +43212,7 @@
         <xdr:cNvPr id="16" name="직사각형 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -45839,7 +43372,7 @@
         <xdr:cNvPr id="17" name="TextBox 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000011000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -45987,7 +43520,7 @@
         <xdr:cNvPr id="47" name="직선 연결선 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17C272E8-9599-4FA5-8B8E-3627E3B5A910}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00002F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -46049,7 +43582,7 @@
         <xdr:cNvPr id="10" name="그룹 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -46068,7 +43601,7 @@
           <xdr:cNvPr id="12" name="직선 화살표 연결선 11">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00000C000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000C000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -46113,7 +43646,7 @@
           <xdr:cNvPr id="13" name="순서도: 판단 12">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00000D000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000D000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -46288,7 +43821,7 @@
           <xdr:cNvPr id="14" name="직선 화살표 연결선 13">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00000E000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000E000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -46333,7 +43866,7 @@
           <xdr:cNvPr id="15" name="직사각형 14">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00000F000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000F000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -46500,7 +44033,7 @@
           <xdr:cNvPr id="16" name="TextBox 120">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000010000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000010000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -46638,7 +44171,7 @@
           <xdr:cNvPr id="18" name="TextBox 143">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000012000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000012000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -46776,7 +44309,7 @@
           <xdr:cNvPr id="19" name="순서도: 판단 18">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000013000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000013000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -46951,7 +44484,7 @@
           <xdr:cNvPr id="20" name="직사각형 19">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000014000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000014000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -47118,7 +44651,7 @@
           <xdr:cNvPr id="22" name="직선 화살표 연결선 21">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000016000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000016000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -47163,7 +44696,7 @@
           <xdr:cNvPr id="23" name="연결선: 꺾임 22">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000017000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000017000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -47211,7 +44744,7 @@
           <xdr:cNvPr id="24" name="직사각형 23">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000018000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000018000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -47381,7 +44914,7 @@
           <xdr:cNvPr id="25" name="직선 화살표 연결선 24">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000019000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000019000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -47426,7 +44959,7 @@
           <xdr:cNvPr id="26" name="순서도: 판단 25">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00001A000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00001A000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -47601,7 +45134,7 @@
           <xdr:cNvPr id="27" name="TextBox 120">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00001B000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00001B000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -47739,7 +45272,7 @@
           <xdr:cNvPr id="28" name="연결선: 꺾임 27">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00001C000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00001C000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -47784,7 +45317,7 @@
           <xdr:cNvPr id="29" name="TextBox 143">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00001D000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00001D000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -47922,7 +45455,7 @@
           <xdr:cNvPr id="30" name="직사각형 29">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00001E000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00001E000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -48092,7 +45625,7 @@
           <xdr:cNvPr id="31" name="직선 화살표 연결선 30">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00001F000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00001F000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -48137,7 +45670,7 @@
           <xdr:cNvPr id="32" name="TextBox 120">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000020000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000020000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -48575,7 +46108,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD60417C-F1A4-440B-A0A0-69A4B84A2D78}">
   <dimension ref="A3:N12"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
@@ -48843,8 +46376,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11615D36-2F01-44E7-B2B4-D86C908D1C4C}">
   <dimension ref="A1:K57"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView showGridLines="0" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -48855,102 +46388,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="F10" s="50" t="s">
-        <v>60</v>
+      <c r="F10" s="36" t="s">
+        <v>50</v>
       </c>
-      <c r="G10" s="50"/>
+      <c r="G10" s="36"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="F11" s="29" t="s">
-        <v>61</v>
+      <c r="F11" s="31" t="s">
+        <v>51</v>
       </c>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="44"/>
-      <c r="J11" s="44"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="44"/>
-      <c r="J12" s="44"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="37"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A13" s="30"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="44"/>
-      <c r="J13" s="44"/>
+      <c r="A13" s="32"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A14" s="30"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="44"/>
-      <c r="J14" s="44"/>
+      <c r="A14" s="32"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="37"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A16" s="14"/>
@@ -48995,24 +46528,24 @@
       <c r="D28" s="19"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A29" s="31" t="s">
+      <c r="A29" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="34"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A30" s="32"/>
-      <c r="B30" s="32"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="32"/>
+      <c r="A30" s="34"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="34"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A31" s="32"/>
-      <c r="B31" s="32"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
+      <c r="A31" s="34"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A34" s="8" t="s">
@@ -49060,25 +46593,25 @@
       <c r="A37" s="7">
         <v>3</v>
       </c>
-      <c r="B37" s="26" t="s">
+      <c r="B37" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C37" s="26" t="s">
+      <c r="C37" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="D37" s="27" t="s">
+      <c r="D37" s="25" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A38" s="45"/>
-      <c r="B38" s="46"/>
-      <c r="C38" s="46"/>
-      <c r="D38" s="47"/>
+      <c r="A38" s="26"/>
+      <c r="B38" s="27"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="28"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B40" s="46" t="s">
-        <v>58</v>
+      <c r="B40" s="27" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.4">
@@ -49141,34 +46674,34 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A53" s="12"/>
-      <c r="B53" s="49" t="s">
-        <v>59</v>
+      <c r="B53" s="35" t="s">
+        <v>49</v>
       </c>
-      <c r="C53" s="49"/>
-      <c r="D53" s="49"/>
+      <c r="C53" s="35"/>
+      <c r="D53" s="35"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B54" s="49"/>
-      <c r="C54" s="49"/>
-      <c r="D54" s="49"/>
+      <c r="B54" s="35"/>
+      <c r="C54" s="35"/>
+      <c r="D54" s="35"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A55" s="48"/>
-      <c r="B55" s="49"/>
-      <c r="C55" s="49"/>
-      <c r="D55" s="49"/>
+      <c r="A55" s="29"/>
+      <c r="B55" s="35"/>
+      <c r="C55" s="35"/>
+      <c r="D55" s="35"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A56" s="48"/>
-      <c r="B56" s="48"/>
-      <c r="C56" s="48"/>
-      <c r="D56" s="48"/>
+      <c r="A56" s="29"/>
+      <c r="B56" s="29"/>
+      <c r="C56" s="29"/>
+      <c r="D56" s="29"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A57" s="48"/>
-      <c r="B57" s="48"/>
-      <c r="C57" s="48"/>
-      <c r="D57" s="48"/>
+      <c r="A57" s="29"/>
+      <c r="B57" s="29"/>
+      <c r="C57" s="29"/>
+      <c r="D57" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -49190,8 +46723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89EB9FA6-FD79-46EB-A983-89A2C0325109}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AD17" sqref="AD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -49202,23 +46735,23 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A3" s="33"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
+      <c r="A3" s="38"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -49234,93 +46767,149 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA7C9376-7F84-4077-964E-5E391732AB98}">
-  <dimension ref="E23:M26"/>
+  <dimension ref="A3:Q26"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U11" sqref="U11"/>
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="2" width="8.796875" customWidth="1"/>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="2" max="2" width="12.19921875" customWidth="1"/>
+    <col min="17" max="17" width="10.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="23" spans="5:13" x14ac:dyDescent="0.4">
-      <c r="E23" s="15" t="s">
-        <v>44</v>
+    <row r="3" spans="13:17" x14ac:dyDescent="0.4">
+      <c r="M3" s="36" t="s">
+        <v>57</v>
       </c>
-      <c r="F23" s="15" t="s">
-        <v>49</v>
+      <c r="N3" s="36"/>
+    </row>
+    <row r="4" spans="13:17" x14ac:dyDescent="0.4">
+      <c r="M4" s="31" t="s">
+        <v>58</v>
       </c>
-      <c r="G23" s="15" t="s">
-        <v>50</v>
+      <c r="N4" s="37"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="37"/>
+    </row>
+    <row r="5" spans="13:17" x14ac:dyDescent="0.4">
+      <c r="M5" s="37"/>
+      <c r="N5" s="37"/>
+      <c r="O5" s="37"/>
+      <c r="P5" s="37"/>
+      <c r="Q5" s="37"/>
+    </row>
+    <row r="6" spans="13:17" x14ac:dyDescent="0.4">
+      <c r="M6" s="37"/>
+      <c r="N6" s="37"/>
+      <c r="O6" s="37"/>
+      <c r="P6" s="37"/>
+      <c r="Q6" s="37"/>
+    </row>
+    <row r="7" spans="13:17" x14ac:dyDescent="0.4">
+      <c r="M7" s="37"/>
+      <c r="N7" s="37"/>
+      <c r="O7" s="37"/>
+      <c r="P7" s="37"/>
+      <c r="Q7" s="37"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A22" s="8" t="s">
+        <v>25</v>
       </c>
-      <c r="H23" s="36" t="s">
-        <v>45</v>
+      <c r="B22" s="22" t="s">
+        <v>26</v>
       </c>
-      <c r="I23" s="37"/>
-      <c r="J23" s="37"/>
-      <c r="K23" s="37"/>
-      <c r="L23" s="37"/>
-      <c r="M23" s="38"/>
+      <c r="C22" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="43"/>
     </row>
-    <row r="24" spans="5:13" x14ac:dyDescent="0.4">
-      <c r="E24" s="21">
+    <row r="23" spans="1:13" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="7">
         <v>1</v>
       </c>
-      <c r="F24" s="20" t="s">
-        <v>46</v>
+      <c r="B23" s="7" t="s">
+        <v>52</v>
       </c>
-      <c r="G24" s="20" t="s">
-        <v>47</v>
+      <c r="C23" s="7" t="s">
+        <v>53</v>
       </c>
-      <c r="H24" s="39" t="s">
-        <v>51</v>
+      <c r="D23" s="47" t="s">
+        <v>55</v>
       </c>
-      <c r="I24" s="39"/>
-      <c r="J24" s="39"/>
-      <c r="K24" s="39"/>
-      <c r="L24" s="39"/>
-      <c r="M24" s="39"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="44"/>
+      <c r="K23" s="44"/>
+      <c r="L23" s="44"/>
+      <c r="M23" s="44"/>
     </row>
-    <row r="25" spans="5:13" x14ac:dyDescent="0.4">
-      <c r="E25" s="35">
+    <row r="24" spans="1:13" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="7">
         <v>2</v>
       </c>
-      <c r="F25" s="40" t="s">
-        <v>53</v>
+      <c r="B24" s="7" t="s">
+        <v>54</v>
       </c>
-      <c r="G25" s="35" t="s">
-        <v>48</v>
+      <c r="C24" s="7" t="s">
+        <v>5</v>
       </c>
-      <c r="H25" s="40" t="s">
-        <v>52</v>
+      <c r="D24" s="48" t="s">
+        <v>56</v>
       </c>
-      <c r="I25" s="39"/>
-      <c r="J25" s="39"/>
-      <c r="K25" s="39"/>
-      <c r="L25" s="39"/>
-      <c r="M25" s="39"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="45"/>
+      <c r="K24" s="45"/>
+      <c r="L24" s="45"/>
+      <c r="M24" s="45"/>
     </row>
-    <row r="26" spans="5:13" x14ac:dyDescent="0.4">
-      <c r="E26" s="35"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="39"/>
-      <c r="I26" s="39"/>
-      <c r="J26" s="39"/>
-      <c r="K26" s="39"/>
-      <c r="L26" s="39"/>
-      <c r="M26" s="39"/>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="E25" s="45"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="45"/>
+      <c r="L25" s="45"/>
+      <c r="M25" s="45"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="E26" s="45"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="45"/>
+      <c r="J26" s="45"/>
+      <c r="K26" s="45"/>
+      <c r="L26" s="45"/>
+      <c r="M26" s="45"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="H23:M23"/>
-    <mergeCell ref="H24:M24"/>
-    <mergeCell ref="H25:M26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="G25:G26"/>
+  <mergeCells count="5">
+    <mergeCell ref="D22:I22"/>
+    <mergeCell ref="D23:I23"/>
+    <mergeCell ref="D24:I24"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="M4:Q7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -49340,70 +46929,70 @@
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="23" spans="2:24" x14ac:dyDescent="0.4">
-      <c r="Q23" s="31" t="s">
-        <v>57</v>
+      <c r="Q23" s="33" t="s">
+        <v>47</v>
       </c>
-      <c r="R23" s="41"/>
-      <c r="S23" s="41"/>
-      <c r="T23" s="41"/>
-      <c r="U23" s="41"/>
-      <c r="V23" s="41"/>
-      <c r="W23" s="41"/>
-      <c r="X23" s="41"/>
+      <c r="R23" s="40"/>
+      <c r="S23" s="40"/>
+      <c r="T23" s="40"/>
+      <c r="U23" s="40"/>
+      <c r="V23" s="40"/>
+      <c r="W23" s="40"/>
+      <c r="X23" s="40"/>
     </row>
     <row r="24" spans="2:24" x14ac:dyDescent="0.4">
-      <c r="Q24" s="41"/>
-      <c r="R24" s="41"/>
-      <c r="S24" s="41"/>
-      <c r="T24" s="41"/>
-      <c r="U24" s="41"/>
-      <c r="V24" s="41"/>
-      <c r="W24" s="41"/>
-      <c r="X24" s="41"/>
+      <c r="Q24" s="40"/>
+      <c r="R24" s="40"/>
+      <c r="S24" s="40"/>
+      <c r="T24" s="40"/>
+      <c r="U24" s="40"/>
+      <c r="V24" s="40"/>
+      <c r="W24" s="40"/>
+      <c r="X24" s="40"/>
     </row>
     <row r="25" spans="2:24" x14ac:dyDescent="0.4">
-      <c r="Q25" s="41"/>
-      <c r="R25" s="41"/>
-      <c r="S25" s="41"/>
-      <c r="T25" s="41"/>
-      <c r="U25" s="41"/>
-      <c r="V25" s="41"/>
-      <c r="W25" s="41"/>
-      <c r="X25" s="41"/>
+      <c r="Q25" s="40"/>
+      <c r="R25" s="40"/>
+      <c r="S25" s="40"/>
+      <c r="T25" s="40"/>
+      <c r="U25" s="40"/>
+      <c r="V25" s="40"/>
+      <c r="W25" s="40"/>
+      <c r="X25" s="40"/>
     </row>
     <row r="26" spans="2:24" x14ac:dyDescent="0.4">
-      <c r="Q26" s="41"/>
-      <c r="R26" s="41"/>
-      <c r="S26" s="41"/>
-      <c r="T26" s="41"/>
-      <c r="U26" s="41"/>
-      <c r="V26" s="41"/>
-      <c r="W26" s="41"/>
-      <c r="X26" s="41"/>
+      <c r="Q26" s="40"/>
+      <c r="R26" s="40"/>
+      <c r="S26" s="40"/>
+      <c r="T26" s="40"/>
+      <c r="U26" s="40"/>
+      <c r="V26" s="40"/>
+      <c r="W26" s="40"/>
+      <c r="X26" s="40"/>
     </row>
     <row r="27" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B27" s="8" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
-      <c r="C27" s="24" t="s">
-        <v>56</v>
+      <c r="C27" s="22" t="s">
+        <v>46</v>
       </c>
-      <c r="D27" s="23"/>
-      <c r="E27" s="22"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="20"/>
     </row>
     <row r="28" spans="2:24" x14ac:dyDescent="0.4">
-      <c r="B28" s="25" t="s">
+      <c r="B28" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="25">
+      <c r="C28" s="23">
         <v>150</v>
       </c>
-      <c r="D28" s="23"/>
-      <c r="E28" s="22"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="20"/>
     </row>
     <row r="29" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B29" s="7" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C29" s="7">
         <v>200</v>
@@ -49431,73 +47020,73 @@
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="17" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A17" s="42" t="s">
+      <c r="A17" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="43"/>
-      <c r="C17" s="43"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="42"/>
     </row>
     <row r="31" spans="1:14" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="29" t="s">
+      <c r="A31" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="B31" s="29"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
-      <c r="F31" s="29" t="s">
+      <c r="B31" s="31"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="31"/>
+      <c r="F31" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="G31" s="44"/>
-      <c r="H31" s="44"/>
-      <c r="I31" s="44"/>
-      <c r="K31" s="29" t="s">
+      <c r="G31" s="37"/>
+      <c r="H31" s="37"/>
+      <c r="I31" s="37"/>
+      <c r="K31" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="L31" s="44"/>
-      <c r="M31" s="44"/>
-      <c r="N31" s="44"/>
+      <c r="L31" s="37"/>
+      <c r="M31" s="37"/>
+      <c r="N31" s="37"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A32" s="29"/>
-      <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-      <c r="F32" s="44"/>
-      <c r="G32" s="44"/>
-      <c r="H32" s="44"/>
-      <c r="I32" s="44"/>
-      <c r="K32" s="44"/>
-      <c r="L32" s="44"/>
-      <c r="M32" s="44"/>
-      <c r="N32" s="44"/>
+      <c r="A32" s="31"/>
+      <c r="B32" s="31"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="31"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="37"/>
+      <c r="I32" s="37"/>
+      <c r="K32" s="37"/>
+      <c r="L32" s="37"/>
+      <c r="M32" s="37"/>
+      <c r="N32" s="37"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A33" s="29"/>
-      <c r="B33" s="29"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="29"/>
-      <c r="F33" s="44"/>
-      <c r="G33" s="44"/>
-      <c r="H33" s="44"/>
-      <c r="I33" s="44"/>
-      <c r="K33" s="44"/>
-      <c r="L33" s="44"/>
-      <c r="M33" s="44"/>
-      <c r="N33" s="44"/>
+      <c r="A33" s="31"/>
+      <c r="B33" s="31"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="31"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="37"/>
+      <c r="I33" s="37"/>
+      <c r="K33" s="37"/>
+      <c r="L33" s="37"/>
+      <c r="M33" s="37"/>
+      <c r="N33" s="37"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A34" s="29"/>
-      <c r="B34" s="29"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="29"/>
-      <c r="F34" s="44"/>
-      <c r="G34" s="44"/>
-      <c r="H34" s="44"/>
-      <c r="I34" s="44"/>
-      <c r="K34" s="44"/>
-      <c r="L34" s="44"/>
-      <c r="M34" s="44"/>
-      <c r="N34" s="44"/>
+      <c r="A34" s="31"/>
+      <c r="B34" s="31"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="31"/>
+      <c r="F34" s="37"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="37"/>
+      <c r="I34" s="37"/>
+      <c r="K34" s="37"/>
+      <c r="L34" s="37"/>
+      <c r="M34" s="37"/>
+      <c r="N34" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -49534,7 +47123,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J42" sqref="J42"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
